--- a/cop_data_final.xlsx
+++ b/cop_data_final.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -129,15 +129,6 @@
   </si>
   <si>
     <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SACLA-P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With parasite or SAC?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With SAC?</t>
   </si>
   <si>
     <t xml:space="preserve">With stomach content</t>
@@ -2767,25 +2758,25 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H62" t="n">
         <v>40</v>
       </c>
       <c r="I62" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J62" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="K62" t="s">
         <v>16</v>
@@ -2803,32 +2794,30 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F63" t="n">
         <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H63" t="n">
         <v>40</v>
       </c>
       <c r="I63" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J63" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="K63" t="s">
         <v>16</v>
       </c>
-      <c r="L63" t="s">
-        <v>17</v>
-      </c>
+      <c r="L63"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2841,16 +2830,16 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F64" t="n">
         <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H64" t="n">
         <v>40</v>
@@ -2859,7 +2848,7 @@
         <v>30</v>
       </c>
       <c r="J64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K64" t="s">
         <v>16</v>
@@ -2877,16 +2866,16 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F65" t="n">
         <v>4</v>
       </c>
       <c r="G65" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H65" t="n">
         <v>40</v>
@@ -2895,14 +2884,12 @@
         <v>30</v>
       </c>
       <c r="J65" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K65" t="s">
         <v>16</v>
       </c>
-      <c r="L65" t="s">
-        <v>40</v>
-      </c>
+      <c r="L65"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2915,25 +2902,25 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F66" t="n">
         <v>5</v>
       </c>
       <c r="G66" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H66" t="n">
         <v>40</v>
       </c>
       <c r="I66" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J66" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="K66" t="s">
         <v>16</v>
@@ -2951,16 +2938,16 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F67" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H67" t="n">
         <v>40</v>
@@ -2969,13 +2956,13 @@
         <v>31</v>
       </c>
       <c r="J67" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K67" t="s">
         <v>16</v>
       </c>
       <c r="L67" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
@@ -2989,16 +2976,16 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H68" t="n">
         <v>40</v>
@@ -3007,12 +2994,14 @@
         <v>31</v>
       </c>
       <c r="J68" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K68" t="s">
         <v>16</v>
       </c>
-      <c r="L68"/>
+      <c r="L68" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3025,25 +3014,25 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H69" t="n">
         <v>40</v>
       </c>
       <c r="I69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J69" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K69" t="s">
         <v>16</v>
@@ -3061,16 +3050,16 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G70" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H70" t="n">
         <v>40</v>
@@ -3079,12 +3068,14 @@
         <v>30</v>
       </c>
       <c r="J70" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K70" t="s">
         <v>16</v>
       </c>
-      <c r="L70"/>
+      <c r="L70" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3097,30 +3088,32 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G71" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H71" t="n">
         <v>40</v>
       </c>
       <c r="I71" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J71" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K71" t="s">
         <v>16</v>
       </c>
-      <c r="L71"/>
+      <c r="L71" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3133,16 +3126,16 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G72" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H72" t="n">
         <v>40</v>
@@ -3151,12 +3144,14 @@
         <v>15</v>
       </c>
       <c r="J72" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K72" t="s">
         <v>16</v>
       </c>
-      <c r="L72"/>
+      <c r="L72" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3169,25 +3164,25 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="H73" t="n">
         <v>40</v>
       </c>
       <c r="I73" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J73" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="K73" t="s">
         <v>16</v>
@@ -3205,30 +3200,32 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F74" t="n">
         <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H74" t="n">
         <v>40</v>
       </c>
       <c r="I74" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J74" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="K74" t="s">
         <v>16</v>
       </c>
-      <c r="L74"/>
+      <c r="L74" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3241,25 +3238,25 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F75" t="n">
         <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="H75" t="n">
         <v>40</v>
       </c>
       <c r="I75" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J75" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="K75" t="s">
         <v>16</v>
@@ -3277,25 +3274,25 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F76" t="n">
         <v>4</v>
       </c>
       <c r="G76" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="H76" t="n">
         <v>40</v>
       </c>
       <c r="I76" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J76" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="K76" t="s">
         <v>16</v>
@@ -3313,16 +3310,16 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F77" t="n">
         <v>5</v>
       </c>
       <c r="G77" t="n">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="H77" t="n">
         <v>40</v>
@@ -3331,7 +3328,7 @@
         <v>31</v>
       </c>
       <c r="J77" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K77" t="s">
         <v>16</v>
@@ -3349,16 +3346,16 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F78" t="n">
         <v>6</v>
       </c>
       <c r="G78" t="n">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="H78" t="n">
         <v>40</v>
@@ -3367,7 +3364,7 @@
         <v>31</v>
       </c>
       <c r="J78" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K78" t="s">
         <v>16</v>
@@ -3385,16 +3382,16 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E79" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="H79" t="n">
         <v>40</v>
@@ -3403,7 +3400,7 @@
         <v>31</v>
       </c>
       <c r="J79" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K79" t="s">
         <v>16</v>
@@ -3423,16 +3420,16 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F80" t="n">
         <v>2</v>
       </c>
       <c r="G80" t="n">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="H80" t="n">
         <v>40</v>
@@ -3441,14 +3438,12 @@
         <v>31</v>
       </c>
       <c r="J80" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K80" t="s">
-        <v>16</v>
-      </c>
-      <c r="L80" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="L80"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3461,25 +3456,25 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E81" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F81" t="n">
         <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="H81" t="n">
         <v>40</v>
       </c>
       <c r="I81" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J81" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="K81" t="s">
         <v>16</v>
@@ -3497,32 +3492,30 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F82" t="n">
         <v>4</v>
       </c>
       <c r="G82" t="n">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="H82" t="n">
         <v>40</v>
       </c>
       <c r="I82" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J82" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="K82" t="s">
         <v>16</v>
       </c>
-      <c r="L82" t="s">
-        <v>21</v>
-      </c>
+      <c r="L82"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3535,32 +3528,30 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E83" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F83" t="n">
         <v>5</v>
       </c>
       <c r="G83" t="n">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H83" t="n">
         <v>40</v>
       </c>
       <c r="I83" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J83" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="K83" t="s">
         <v>16</v>
       </c>
-      <c r="L83" t="s">
-        <v>17</v>
-      </c>
+      <c r="L83"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3573,63 +3564,61 @@
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F84" t="n">
         <v>6</v>
       </c>
       <c r="G84" t="n">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="H84" t="n">
         <v>40</v>
       </c>
       <c r="I84" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J84" t="n">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="K84" t="s">
         <v>16</v>
       </c>
-      <c r="L84" t="s">
-        <v>43</v>
-      </c>
+      <c r="L84"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E85" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="H85" t="n">
         <v>40</v>
       </c>
       <c r="I85" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J85" t="n">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="K85" t="s">
         <v>16</v>
@@ -3638,72 +3627,70 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E86" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F86" t="n">
         <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="H86" t="n">
         <v>40</v>
       </c>
       <c r="I86" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J86" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="K86" t="s">
         <v>16</v>
       </c>
-      <c r="L86" t="s">
-        <v>21</v>
-      </c>
+      <c r="L86"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E87" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F87" t="n">
         <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="H87" t="n">
         <v>40</v>
       </c>
       <c r="I87" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J87" t="n">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="K87" t="s">
         <v>16</v>
@@ -3712,34 +3699,34 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E88" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F88" t="n">
         <v>4</v>
       </c>
       <c r="G88" t="n">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="H88" t="n">
         <v>40</v>
       </c>
       <c r="I88" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J88" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="K88" t="s">
         <v>16</v>
@@ -3748,25 +3735,25 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E89" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F89" t="n">
         <v>5</v>
       </c>
       <c r="G89" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="H89" t="n">
         <v>40</v>
@@ -3775,7 +3762,7 @@
         <v>31</v>
       </c>
       <c r="J89" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K89" t="s">
         <v>16</v>
@@ -3784,25 +3771,25 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E90" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F90" t="n">
         <v>6</v>
       </c>
       <c r="G90" t="n">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="H90" t="n">
         <v>40</v>
@@ -3811,7 +3798,7 @@
         <v>31</v>
       </c>
       <c r="J90" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K90" t="s">
         <v>16</v>
@@ -3820,16 +3807,16 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E91" t="s">
         <v>14</v>
@@ -3838,7 +3825,7 @@
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="H91" t="n">
         <v>40</v>
@@ -3847,27 +3834,25 @@
         <v>31</v>
       </c>
       <c r="J91" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K91" t="s">
         <v>16</v>
       </c>
-      <c r="L91" t="s">
-        <v>21</v>
-      </c>
+      <c r="L91"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E92" t="s">
         <v>14</v>
@@ -3876,7 +3861,7 @@
         <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="H92" t="n">
         <v>40</v>
@@ -3885,25 +3870,25 @@
         <v>31</v>
       </c>
       <c r="J92" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K92" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="L92"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E93" t="s">
         <v>14</v>
@@ -3912,16 +3897,16 @@
         <v>3</v>
       </c>
       <c r="G93" t="n">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="H93" t="n">
         <v>40</v>
       </c>
       <c r="I93" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J93" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="K93" t="s">
         <v>16</v>
@@ -3930,16 +3915,16 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
@@ -3948,16 +3933,16 @@
         <v>4</v>
       </c>
       <c r="G94" t="n">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="H94" t="n">
         <v>40</v>
       </c>
       <c r="I94" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J94" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="K94" t="s">
         <v>16</v>
@@ -3966,16 +3951,16 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
@@ -3984,16 +3969,16 @@
         <v>5</v>
       </c>
       <c r="G95" t="n">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H95" t="n">
         <v>40</v>
       </c>
       <c r="I95" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J95" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K95" t="s">
         <v>16</v>
@@ -4002,16 +3987,16 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="B96" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
@@ -4020,16 +4005,16 @@
         <v>6</v>
       </c>
       <c r="G96" t="n">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="H96" t="n">
         <v>40</v>
       </c>
       <c r="I96" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J96" t="n">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="K96" t="s">
         <v>16</v>
@@ -4041,13 +4026,13 @@
         <v>44370</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C97" t="n">
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E97" t="s">
         <v>33</v>
@@ -4056,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="H97" t="n">
         <v>40</v>
@@ -4065,7 +4050,7 @@
         <v>15</v>
       </c>
       <c r="J97" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K97" t="s">
         <v>16</v>
@@ -4077,13 +4062,13 @@
         <v>44370</v>
       </c>
       <c r="B98" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C98" t="n">
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E98" t="s">
         <v>33</v>
@@ -4092,7 +4077,7 @@
         <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H98" t="n">
         <v>40</v>
@@ -4101,7 +4086,7 @@
         <v>15</v>
       </c>
       <c r="J98" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K98" t="s">
         <v>16</v>
@@ -4113,13 +4098,13 @@
         <v>44370</v>
       </c>
       <c r="B99" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C99" t="n">
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E99" t="s">
         <v>33</v>
@@ -4128,7 +4113,7 @@
         <v>3</v>
       </c>
       <c r="G99" t="n">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="H99" t="n">
         <v>40</v>
@@ -4137,25 +4122,27 @@
         <v>30</v>
       </c>
       <c r="J99" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K99" t="s">
         <v>16</v>
       </c>
-      <c r="L99"/>
+      <c r="L99" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>44370</v>
       </c>
       <c r="B100" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C100" t="n">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E100" t="s">
         <v>33</v>
@@ -4164,7 +4151,7 @@
         <v>4</v>
       </c>
       <c r="G100" t="n">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H100" t="n">
         <v>40</v>
@@ -4173,25 +4160,27 @@
         <v>30</v>
       </c>
       <c r="J100" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K100" t="s">
         <v>16</v>
       </c>
-      <c r="L100"/>
+      <c r="L100" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>44370</v>
       </c>
       <c r="B101" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C101" t="n">
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E101" t="s">
         <v>33</v>
@@ -4200,7 +4189,7 @@
         <v>5</v>
       </c>
       <c r="G101" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H101" t="n">
         <v>40</v>
@@ -4209,7 +4198,7 @@
         <v>31</v>
       </c>
       <c r="J101" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K101" t="s">
         <v>16</v>
@@ -4221,13 +4210,13 @@
         <v>44370</v>
       </c>
       <c r="B102" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C102" t="n">
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E102" t="s">
         <v>33</v>
@@ -4236,7 +4225,7 @@
         <v>6</v>
       </c>
       <c r="G102" t="n">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="H102" t="n">
         <v>40</v>
@@ -4245,7 +4234,7 @@
         <v>31</v>
       </c>
       <c r="J102" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K102" t="s">
         <v>16</v>
@@ -4257,22 +4246,22 @@
         <v>44370</v>
       </c>
       <c r="B103" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C103" t="n">
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E103" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="H103" t="n">
         <v>40</v>
@@ -4281,7 +4270,7 @@
         <v>31</v>
       </c>
       <c r="J103" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K103" t="s">
         <v>16</v>
@@ -4293,22 +4282,22 @@
         <v>44370</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C104" t="n">
         <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F104" t="n">
         <v>2</v>
       </c>
       <c r="G104" t="n">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H104" t="n">
         <v>40</v>
@@ -4317,10 +4306,10 @@
         <v>31</v>
       </c>
       <c r="J104" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K104" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="L104"/>
     </row>
@@ -4329,22 +4318,22 @@
         <v>44370</v>
       </c>
       <c r="B105" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C105" t="n">
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E105" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F105" t="n">
         <v>3</v>
       </c>
       <c r="G105" t="n">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H105" t="n">
         <v>40</v>
@@ -4353,7 +4342,7 @@
         <v>30</v>
       </c>
       <c r="J105" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K105" t="s">
         <v>16</v>
@@ -4365,22 +4354,22 @@
         <v>44370</v>
       </c>
       <c r="B106" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C106" t="n">
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E106" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F106" t="n">
         <v>4</v>
       </c>
       <c r="G106" t="n">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="H106" t="n">
         <v>40</v>
@@ -4389,7 +4378,7 @@
         <v>30</v>
       </c>
       <c r="J106" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K106" t="s">
         <v>16</v>
@@ -4401,22 +4390,22 @@
         <v>44370</v>
       </c>
       <c r="B107" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C107" t="n">
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F107" t="n">
         <v>5</v>
       </c>
       <c r="G107" t="n">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="H107" t="n">
         <v>40</v>
@@ -4425,7 +4414,7 @@
         <v>15</v>
       </c>
       <c r="J107" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K107" t="s">
         <v>16</v>
@@ -4437,22 +4426,22 @@
         <v>44370</v>
       </c>
       <c r="B108" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C108" t="n">
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E108" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F108" t="n">
         <v>6</v>
       </c>
       <c r="G108" t="n">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="H108" t="n">
         <v>40</v>
@@ -4461,7 +4450,7 @@
         <v>15</v>
       </c>
       <c r="J108" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K108" t="s">
         <v>16</v>
@@ -4473,22 +4462,22 @@
         <v>44370</v>
       </c>
       <c r="B109" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C109" t="n">
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F109" t="n">
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H109" t="n">
         <v>40</v>
@@ -4497,7 +4486,7 @@
         <v>15</v>
       </c>
       <c r="J109" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K109" t="s">
         <v>16</v>
@@ -4509,22 +4498,22 @@
         <v>44370</v>
       </c>
       <c r="B110" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C110" t="n">
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E110" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F110" t="n">
         <v>2</v>
       </c>
       <c r="G110" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="H110" t="n">
         <v>40</v>
@@ -4533,7 +4522,7 @@
         <v>15</v>
       </c>
       <c r="J110" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K110" t="s">
         <v>16</v>
@@ -4545,107 +4534,103 @@
         <v>44370</v>
       </c>
       <c r="B111" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C111" t="n">
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F111" t="n">
         <v>3</v>
       </c>
       <c r="G111" t="n">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H111" t="n">
         <v>40</v>
       </c>
       <c r="I111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J111" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K111" t="s">
         <v>16</v>
       </c>
-      <c r="L111" t="s">
-        <v>21</v>
-      </c>
+      <c r="L111"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>44370</v>
       </c>
       <c r="B112" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C112" t="n">
         <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F112" t="n">
         <v>4</v>
       </c>
       <c r="G112" t="n">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H112" t="n">
         <v>40</v>
       </c>
       <c r="I112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J112" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K112" t="s">
         <v>16</v>
       </c>
-      <c r="L112" t="s">
-        <v>45</v>
-      </c>
+      <c r="L112"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>44370</v>
       </c>
       <c r="B113" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C113" t="n">
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E113" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F113" t="n">
         <v>5</v>
       </c>
       <c r="G113" t="n">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="H113" t="n">
         <v>40</v>
       </c>
       <c r="I113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J113" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K113" t="s">
         <v>16</v>
@@ -4657,31 +4642,31 @@
         <v>44370</v>
       </c>
       <c r="B114" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C114" t="n">
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E114" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F114" t="n">
         <v>6</v>
       </c>
       <c r="G114" t="n">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="H114" t="n">
         <v>40</v>
       </c>
       <c r="I114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J114" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K114" t="s">
         <v>16</v>
@@ -4693,31 +4678,31 @@
         <v>44370</v>
       </c>
       <c r="B115" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C115" t="n">
         <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E115" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="H115" t="n">
         <v>40</v>
       </c>
       <c r="I115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J115" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K115" t="s">
         <v>16</v>
@@ -4729,130 +4714,136 @@
         <v>44370</v>
       </c>
       <c r="B116" t="s">
+        <v>41</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" t="s">
+        <v>37</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2</v>
+      </c>
+      <c r="G116" t="n">
+        <v>147</v>
+      </c>
+      <c r="H116" t="n">
+        <v>40</v>
+      </c>
+      <c r="I116" t="s">
+        <v>30</v>
+      </c>
+      <c r="J116" t="n">
+        <v>36</v>
+      </c>
+      <c r="K116" t="s">
+        <v>16</v>
+      </c>
+      <c r="L116" t="s">
         <v>44</v>
       </c>
-      <c r="C116" t="n">
-        <v>2</v>
-      </c>
-      <c r="D116" t="s">
-        <v>28</v>
-      </c>
-      <c r="E116" t="s">
-        <v>18</v>
-      </c>
-      <c r="F116" t="n">
-        <v>2</v>
-      </c>
-      <c r="G116" t="n">
-        <v>135</v>
-      </c>
-      <c r="H116" t="n">
-        <v>40</v>
-      </c>
-      <c r="I116" t="s">
-        <v>31</v>
-      </c>
-      <c r="J116" t="n">
-        <v>35</v>
-      </c>
-      <c r="K116" t="s">
-        <v>46</v>
-      </c>
-      <c r="L116"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>44370</v>
       </c>
       <c r="B117" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C117" t="n">
         <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E117" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F117" t="n">
         <v>3</v>
       </c>
       <c r="G117" t="n">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="H117" t="n">
         <v>40</v>
       </c>
       <c r="I117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J117" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K117" t="s">
         <v>16</v>
       </c>
-      <c r="L117"/>
+      <c r="L117" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>44370</v>
       </c>
       <c r="B118" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C118" t="n">
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E118" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F118" t="n">
         <v>4</v>
       </c>
       <c r="G118" t="n">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="H118" t="n">
         <v>40</v>
       </c>
       <c r="I118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J118" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K118" t="s">
         <v>16</v>
       </c>
-      <c r="L118"/>
+      <c r="L118" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>44370</v>
       </c>
       <c r="B119" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C119" t="n">
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E119" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F119" t="n">
         <v>5</v>
       </c>
       <c r="G119" t="n">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="H119" t="n">
         <v>40</v>
@@ -4861,34 +4852,36 @@
         <v>15</v>
       </c>
       <c r="J119" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K119" t="s">
         <v>16</v>
       </c>
-      <c r="L119"/>
+      <c r="L119" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>44370</v>
       </c>
       <c r="B120" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C120" t="n">
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E120" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F120" t="n">
         <v>6</v>
       </c>
       <c r="G120" t="n">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="H120" t="n">
         <v>40</v>
@@ -4897,106 +4890,112 @@
         <v>15</v>
       </c>
       <c r="J120" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K120" t="s">
         <v>16</v>
       </c>
-      <c r="L120"/>
+      <c r="L120" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B121" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C121" t="n">
         <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G121" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H121" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I121" t="s">
         <v>15</v>
       </c>
       <c r="J121" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K121" t="s">
         <v>16</v>
       </c>
-      <c r="L121"/>
+      <c r="L121" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="B122" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C122" t="n">
         <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E122" t="s">
         <v>37</v>
       </c>
       <c r="F122" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G122" t="n">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H122" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I122" t="s">
         <v>15</v>
       </c>
       <c r="J122" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K122" t="s">
         <v>16</v>
       </c>
-      <c r="L122"/>
+      <c r="L122" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="B123" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E123" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="H123" t="n">
         <v>40</v>
@@ -5005,7 +5004,7 @@
         <v>31</v>
       </c>
       <c r="J123" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K123" t="s">
         <v>16</v>
@@ -5014,25 +5013,25 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="B124" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E124" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F124" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G124" t="n">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="H124" t="n">
         <v>40</v>
@@ -5041,7 +5040,7 @@
         <v>31</v>
       </c>
       <c r="J124" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K124" t="s">
         <v>16</v>
@@ -5050,25 +5049,25 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="B125" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E125" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F125" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G125" t="n">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="H125" t="n">
         <v>40</v>
@@ -5077,7 +5076,7 @@
         <v>30</v>
       </c>
       <c r="J125" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K125" t="s">
         <v>16</v>
@@ -5086,25 +5085,25 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="B126" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E126" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F126" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G126" t="n">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="H126" t="n">
         <v>40</v>
@@ -5113,7 +5112,7 @@
         <v>30</v>
       </c>
       <c r="J126" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K126" t="s">
         <v>16</v>
@@ -5122,34 +5121,34 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="B127" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G127" t="n">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="H127" t="n">
         <v>40</v>
       </c>
       <c r="I127" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J127" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="K127" t="s">
         <v>16</v>
@@ -5158,372 +5157,364 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="B128" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E128" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G128" t="n">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="H128" t="n">
         <v>40</v>
       </c>
       <c r="I128" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J128" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="K128" t="s">
         <v>16</v>
       </c>
-      <c r="L128" t="s">
-        <v>47</v>
-      </c>
+      <c r="L128"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="B129" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H129" t="n">
         <v>40</v>
       </c>
       <c r="I129" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J129" t="n">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K129" t="s">
         <v>16</v>
       </c>
       <c r="L129" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="B130" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E130" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F130" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G130" t="n">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="H130" t="n">
         <v>40</v>
       </c>
       <c r="I130" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J130" t="n">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="K130" t="s">
         <v>16</v>
       </c>
-      <c r="L130" t="s">
-        <v>49</v>
-      </c>
+      <c r="L130"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="B131" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E131" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F131" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G131" t="n">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="H131" t="n">
         <v>40</v>
       </c>
       <c r="I131" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J131" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="K131" t="s">
         <v>16</v>
       </c>
-      <c r="L131" t="s">
-        <v>50</v>
-      </c>
+      <c r="L131"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="B132" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F132" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G132" t="n">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="H132" t="n">
         <v>40</v>
       </c>
       <c r="I132" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J132" t="n">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="K132" t="s">
         <v>16</v>
       </c>
-      <c r="L132" t="s">
-        <v>26</v>
-      </c>
+      <c r="L132"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B133" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E133" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F133" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G133" t="n">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="H133" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I133" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J133" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="K133" t="s">
         <v>16</v>
       </c>
-      <c r="L133" t="s">
-        <v>53</v>
-      </c>
+      <c r="L133"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B134" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F134" t="n">
         <v>6</v>
       </c>
       <c r="G134" t="n">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="H134" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I134" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J134" t="n">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="K134" t="s">
         <v>16</v>
       </c>
-      <c r="L134" t="s">
-        <v>53</v>
-      </c>
+      <c r="L134"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>44372</v>
       </c>
       <c r="B135" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E135" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H135" t="n">
         <v>40</v>
       </c>
       <c r="I135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J135" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K135" t="s">
         <v>16</v>
       </c>
-      <c r="L135"/>
+      <c r="L135" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>44372</v>
       </c>
       <c r="B136" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E136" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F136" t="n">
         <v>2</v>
       </c>
       <c r="G136" t="n">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="H136" t="n">
         <v>40</v>
       </c>
       <c r="I136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J136" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K136" t="s">
         <v>16</v>
       </c>
-      <c r="L136"/>
+      <c r="L136" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>44372</v>
       </c>
       <c r="B137" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E137" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F137" t="n">
         <v>3</v>
       </c>
       <c r="G137" t="n">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="H137" t="n">
         <v>40</v>
       </c>
       <c r="I137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J137" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K137" t="s">
         <v>16</v>
@@ -5535,31 +5526,31 @@
         <v>44372</v>
       </c>
       <c r="B138" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C138" t="n">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E138" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F138" t="n">
         <v>4</v>
       </c>
       <c r="G138" t="n">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="H138" t="n">
         <v>40</v>
       </c>
       <c r="I138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J138" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K138" t="s">
         <v>16</v>
@@ -5571,31 +5562,31 @@
         <v>44372</v>
       </c>
       <c r="B139" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E139" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F139" t="n">
         <v>5</v>
       </c>
       <c r="G139" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="H139" t="n">
         <v>40</v>
       </c>
       <c r="I139" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J139" t="n">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="K139" t="s">
         <v>16</v>
@@ -5607,31 +5598,31 @@
         <v>44372</v>
       </c>
       <c r="B140" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E140" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F140" t="n">
         <v>6</v>
       </c>
       <c r="G140" t="n">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="H140" t="n">
         <v>40</v>
       </c>
       <c r="I140" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J140" t="n">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="K140" t="s">
         <v>16</v>
@@ -5643,13 +5634,13 @@
         <v>44372</v>
       </c>
       <c r="B141" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E141" t="s">
         <v>20</v>
@@ -5658,36 +5649,34 @@
         <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="H141" t="n">
         <v>40</v>
       </c>
       <c r="I141" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J141" t="n">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="K141" t="s">
         <v>16</v>
       </c>
-      <c r="L141" t="s">
-        <v>56</v>
-      </c>
+      <c r="L141"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>44372</v>
       </c>
       <c r="B142" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E142" t="s">
         <v>20</v>
@@ -5696,16 +5685,16 @@
         <v>2</v>
       </c>
       <c r="G142" t="n">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H142" t="n">
         <v>40</v>
       </c>
       <c r="I142" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J142" t="n">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="K142" t="s">
         <v>16</v>
@@ -5717,13 +5706,13 @@
         <v>44372</v>
       </c>
       <c r="B143" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E143" t="s">
         <v>20</v>
@@ -5732,7 +5721,7 @@
         <v>3</v>
       </c>
       <c r="G143" t="n">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="H143" t="n">
         <v>40</v>
@@ -5741,7 +5730,7 @@
         <v>31</v>
       </c>
       <c r="J143" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K143" t="s">
         <v>16</v>
@@ -5753,13 +5742,13 @@
         <v>44372</v>
       </c>
       <c r="B144" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E144" t="s">
         <v>20</v>
@@ -5768,7 +5757,7 @@
         <v>4</v>
       </c>
       <c r="G144" t="n">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="H144" t="n">
         <v>40</v>
@@ -5777,7 +5766,7 @@
         <v>31</v>
       </c>
       <c r="J144" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K144" t="s">
         <v>16</v>
@@ -5789,13 +5778,13 @@
         <v>44372</v>
       </c>
       <c r="B145" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E145" t="s">
         <v>20</v>
@@ -5804,16 +5793,16 @@
         <v>5</v>
       </c>
       <c r="G145" t="n">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="H145" t="n">
         <v>40</v>
       </c>
       <c r="I145" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J145" t="n">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="K145" t="s">
         <v>16</v>
@@ -5825,13 +5814,13 @@
         <v>44372</v>
       </c>
       <c r="B146" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E146" t="s">
         <v>20</v>
@@ -5840,16 +5829,16 @@
         <v>6</v>
       </c>
       <c r="G146" t="n">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="H146" t="n">
         <v>40</v>
       </c>
       <c r="I146" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J146" t="n">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="K146" t="s">
         <v>16</v>
@@ -5861,107 +5850,103 @@
         <v>44372</v>
       </c>
       <c r="B147" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E147" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F147" t="n">
         <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="H147" t="n">
         <v>40</v>
       </c>
       <c r="I147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J147" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K147" t="s">
         <v>16</v>
       </c>
-      <c r="L147" t="s">
-        <v>56</v>
-      </c>
+      <c r="L147"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>44372</v>
       </c>
       <c r="B148" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E148" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F148" t="n">
         <v>2</v>
       </c>
       <c r="G148" t="n">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="H148" t="n">
         <v>40</v>
       </c>
       <c r="I148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J148" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K148" t="s">
         <v>16</v>
       </c>
-      <c r="L148" t="s">
-        <v>57</v>
-      </c>
+      <c r="L148"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>44372</v>
       </c>
       <c r="B149" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E149" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F149" t="n">
         <v>3</v>
       </c>
       <c r="G149" t="n">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="H149" t="n">
         <v>40</v>
       </c>
       <c r="I149" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J149" t="n">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="K149" t="s">
         <v>16</v>
@@ -5973,31 +5958,31 @@
         <v>44372</v>
       </c>
       <c r="B150" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E150" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F150" t="n">
         <v>4</v>
       </c>
       <c r="G150" t="n">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="H150" t="n">
         <v>40</v>
       </c>
       <c r="I150" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J150" t="n">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="K150" t="s">
         <v>16</v>
@@ -6009,31 +5994,31 @@
         <v>44372</v>
       </c>
       <c r="B151" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E151" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F151" t="n">
         <v>5</v>
       </c>
       <c r="G151" t="n">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="H151" t="n">
         <v>40</v>
       </c>
       <c r="I151" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J151" t="n">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="K151" t="s">
         <v>16</v>
@@ -6045,31 +6030,31 @@
         <v>44372</v>
       </c>
       <c r="B152" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E152" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F152" t="n">
         <v>6</v>
       </c>
       <c r="G152" t="n">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="H152" t="n">
         <v>40</v>
       </c>
       <c r="I152" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J152" t="n">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="K152" t="s">
         <v>16</v>
@@ -6083,20 +6068,16 @@
       <c r="B153" t="s">
         <v>55</v>
       </c>
-      <c r="C153" t="n">
-        <v>1</v>
-      </c>
-      <c r="D153" t="s">
-        <v>28</v>
-      </c>
+      <c r="C153"/>
+      <c r="D153"/>
       <c r="E153" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F153" t="n">
         <v>1</v>
       </c>
       <c r="G153" t="n">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="H153" t="n">
         <v>40</v>
@@ -6105,12 +6086,14 @@
         <v>30</v>
       </c>
       <c r="J153" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K153" t="s">
         <v>16</v>
       </c>
-      <c r="L153"/>
+      <c r="L153" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6119,29 +6102,25 @@
       <c r="B154" t="s">
         <v>55</v>
       </c>
-      <c r="C154" t="n">
-        <v>1</v>
-      </c>
-      <c r="D154" t="s">
-        <v>28</v>
-      </c>
+      <c r="C154"/>
+      <c r="D154"/>
       <c r="E154" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F154" t="n">
         <v>2</v>
       </c>
       <c r="G154" t="n">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="H154" t="n">
         <v>40</v>
       </c>
       <c r="I154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J154" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K154" t="s">
         <v>16</v>
@@ -6155,34 +6134,32 @@
       <c r="B155" t="s">
         <v>55</v>
       </c>
-      <c r="C155" t="n">
-        <v>1</v>
-      </c>
-      <c r="D155" t="s">
-        <v>28</v>
-      </c>
+      <c r="C155"/>
+      <c r="D155"/>
       <c r="E155" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F155" t="n">
         <v>3</v>
       </c>
       <c r="G155" t="n">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="H155" t="n">
         <v>40</v>
       </c>
       <c r="I155" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J155" t="n">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="K155" t="s">
         <v>16</v>
       </c>
-      <c r="L155"/>
+      <c r="L155" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6191,29 +6168,25 @@
       <c r="B156" t="s">
         <v>55</v>
       </c>
-      <c r="C156" t="n">
-        <v>1</v>
-      </c>
-      <c r="D156" t="s">
-        <v>28</v>
-      </c>
+      <c r="C156"/>
+      <c r="D156"/>
       <c r="E156" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F156" t="n">
         <v>4</v>
       </c>
       <c r="G156" t="n">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="H156" t="n">
         <v>40</v>
       </c>
       <c r="I156" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J156" t="n">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="K156" t="s">
         <v>16</v>
@@ -6227,34 +6200,32 @@
       <c r="B157" t="s">
         <v>55</v>
       </c>
-      <c r="C157" t="n">
-        <v>1</v>
-      </c>
-      <c r="D157" t="s">
-        <v>28</v>
-      </c>
+      <c r="C157"/>
+      <c r="D157"/>
       <c r="E157" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F157" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="H157" t="n">
         <v>40</v>
       </c>
       <c r="I157" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J157" t="n">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="K157" t="s">
         <v>16</v>
       </c>
-      <c r="L157"/>
+      <c r="L157" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6263,30 +6234,24 @@
       <c r="B158" t="s">
         <v>55</v>
       </c>
-      <c r="C158" t="n">
-        <v>1</v>
-      </c>
-      <c r="D158" t="s">
-        <v>28</v>
-      </c>
+      <c r="C158"/>
+      <c r="D158"/>
       <c r="E158" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F158" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G158" t="n">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="H158" t="n">
         <v>40</v>
       </c>
       <c r="I158" t="s">
-        <v>15</v>
-      </c>
-      <c r="J158" t="n">
-        <v>84</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J158"/>
       <c r="K158" t="s">
         <v>16</v>
       </c>
@@ -6299,20 +6264,16 @@
       <c r="B159" t="s">
         <v>55</v>
       </c>
-      <c r="C159" t="n">
-        <v>1</v>
-      </c>
-      <c r="D159" t="s">
-        <v>13</v>
-      </c>
+      <c r="C159"/>
+      <c r="D159"/>
       <c r="E159" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G159" t="n">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="H159" t="n">
         <v>40</v>
@@ -6321,7 +6282,7 @@
         <v>15</v>
       </c>
       <c r="J159" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K159" t="s">
         <v>16</v>
@@ -6335,20 +6296,16 @@
       <c r="B160" t="s">
         <v>55</v>
       </c>
-      <c r="C160" t="n">
-        <v>1</v>
-      </c>
-      <c r="D160" t="s">
-        <v>13</v>
-      </c>
+      <c r="C160"/>
+      <c r="D160"/>
       <c r="E160" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F160" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G160" t="n">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="H160" t="n">
         <v>40</v>
@@ -6357,12 +6314,14 @@
         <v>15</v>
       </c>
       <c r="J160" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K160" t="s">
         <v>16</v>
       </c>
-      <c r="L160"/>
+      <c r="L160" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6371,652 +6330,30 @@
       <c r="B161" t="s">
         <v>55</v>
       </c>
-      <c r="C161" t="n">
-        <v>1</v>
-      </c>
-      <c r="D161" t="s">
-        <v>13</v>
-      </c>
+      <c r="C161"/>
+      <c r="D161"/>
       <c r="E161" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F161" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G161" t="n">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="H161" t="n">
         <v>40</v>
       </c>
       <c r="I161" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J161" t="n">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="K161" t="s">
         <v>16</v>
       </c>
       <c r="L161"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B162" t="s">
-        <v>55</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1</v>
-      </c>
-      <c r="D162" t="s">
-        <v>13</v>
-      </c>
-      <c r="E162" t="s">
-        <v>39</v>
-      </c>
-      <c r="F162" t="n">
-        <v>4</v>
-      </c>
-      <c r="G162" t="n">
-        <v>191</v>
-      </c>
-      <c r="H162" t="n">
-        <v>40</v>
-      </c>
-      <c r="I162" t="s">
-        <v>31</v>
-      </c>
-      <c r="J162" t="n">
-        <v>49</v>
-      </c>
-      <c r="K162" t="s">
-        <v>16</v>
-      </c>
-      <c r="L162"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B163" t="s">
-        <v>55</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1</v>
-      </c>
-      <c r="D163" t="s">
-        <v>13</v>
-      </c>
-      <c r="E163" t="s">
-        <v>39</v>
-      </c>
-      <c r="F163" t="n">
-        <v>5</v>
-      </c>
-      <c r="G163" t="n">
-        <v>192</v>
-      </c>
-      <c r="H163" t="n">
-        <v>40</v>
-      </c>
-      <c r="I163" t="s">
-        <v>30</v>
-      </c>
-      <c r="J163" t="n">
-        <v>50</v>
-      </c>
-      <c r="K163" t="s">
-        <v>16</v>
-      </c>
-      <c r="L163"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B164" t="s">
-        <v>55</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1</v>
-      </c>
-      <c r="D164" t="s">
-        <v>13</v>
-      </c>
-      <c r="E164" t="s">
-        <v>39</v>
-      </c>
-      <c r="F164" t="n">
-        <v>6</v>
-      </c>
-      <c r="G164" t="n">
-        <v>193</v>
-      </c>
-      <c r="H164" t="n">
-        <v>40</v>
-      </c>
-      <c r="I164" t="s">
-        <v>30</v>
-      </c>
-      <c r="J164" t="n">
-        <v>51</v>
-      </c>
-      <c r="K164" t="s">
-        <v>16</v>
-      </c>
-      <c r="L164"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B165" t="s">
-        <v>55</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1</v>
-      </c>
-      <c r="D165" t="s">
-        <v>16</v>
-      </c>
-      <c r="E165" t="s">
-        <v>18</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1</v>
-      </c>
-      <c r="G165" t="n">
-        <v>194</v>
-      </c>
-      <c r="H165" t="n">
-        <v>40</v>
-      </c>
-      <c r="I165" t="s">
-        <v>31</v>
-      </c>
-      <c r="J165" t="n">
-        <v>50</v>
-      </c>
-      <c r="K165" t="s">
-        <v>16</v>
-      </c>
-      <c r="L165"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B166" t="s">
-        <v>55</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1</v>
-      </c>
-      <c r="D166" t="s">
-        <v>16</v>
-      </c>
-      <c r="E166" t="s">
-        <v>18</v>
-      </c>
-      <c r="F166" t="n">
-        <v>2</v>
-      </c>
-      <c r="G166" t="n">
-        <v>195</v>
-      </c>
-      <c r="H166" t="n">
-        <v>40</v>
-      </c>
-      <c r="I166" t="s">
-        <v>31</v>
-      </c>
-      <c r="J166" t="n">
-        <v>51</v>
-      </c>
-      <c r="K166" t="s">
-        <v>16</v>
-      </c>
-      <c r="L166"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B167" t="s">
-        <v>55</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1</v>
-      </c>
-      <c r="D167" t="s">
-        <v>16</v>
-      </c>
-      <c r="E167" t="s">
-        <v>18</v>
-      </c>
-      <c r="F167" t="n">
-        <v>3</v>
-      </c>
-      <c r="G167" t="n">
-        <v>196</v>
-      </c>
-      <c r="H167" t="n">
-        <v>40</v>
-      </c>
-      <c r="I167" t="s">
-        <v>15</v>
-      </c>
-      <c r="J167" t="n">
-        <v>87</v>
-      </c>
-      <c r="K167" t="s">
-        <v>16</v>
-      </c>
-      <c r="L167"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B168" t="s">
-        <v>55</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1</v>
-      </c>
-      <c r="D168" t="s">
-        <v>16</v>
-      </c>
-      <c r="E168" t="s">
-        <v>18</v>
-      </c>
-      <c r="F168" t="n">
-        <v>4</v>
-      </c>
-      <c r="G168" t="n">
-        <v>197</v>
-      </c>
-      <c r="H168" t="n">
-        <v>40</v>
-      </c>
-      <c r="I168" t="s">
-        <v>15</v>
-      </c>
-      <c r="J168" t="n">
-        <v>88</v>
-      </c>
-      <c r="K168" t="s">
-        <v>16</v>
-      </c>
-      <c r="L168"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B169" t="s">
-        <v>55</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1</v>
-      </c>
-      <c r="D169" t="s">
-        <v>16</v>
-      </c>
-      <c r="E169" t="s">
-        <v>18</v>
-      </c>
-      <c r="F169" t="n">
-        <v>5</v>
-      </c>
-      <c r="G169" t="n">
-        <v>198</v>
-      </c>
-      <c r="H169" t="n">
-        <v>40</v>
-      </c>
-      <c r="I169" t="s">
-        <v>15</v>
-      </c>
-      <c r="J169" t="n">
-        <v>89</v>
-      </c>
-      <c r="K169" t="s">
-        <v>16</v>
-      </c>
-      <c r="L169"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B170" t="s">
-        <v>55</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1</v>
-      </c>
-      <c r="D170" t="s">
-        <v>16</v>
-      </c>
-      <c r="E170" t="s">
-        <v>18</v>
-      </c>
-      <c r="F170" t="n">
-        <v>6</v>
-      </c>
-      <c r="G170" t="n">
-        <v>199</v>
-      </c>
-      <c r="H170" t="n">
-        <v>40</v>
-      </c>
-      <c r="I170" t="s">
-        <v>15</v>
-      </c>
-      <c r="J170" t="n">
-        <v>90</v>
-      </c>
-      <c r="K170" t="s">
-        <v>16</v>
-      </c>
-      <c r="L170"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B171" t="s">
-        <v>58</v>
-      </c>
-      <c r="C171"/>
-      <c r="D171"/>
-      <c r="E171" t="s">
-        <v>59</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1</v>
-      </c>
-      <c r="G171" t="n">
-        <v>204</v>
-      </c>
-      <c r="H171" t="n">
-        <v>40</v>
-      </c>
-      <c r="I171" t="s">
-        <v>30</v>
-      </c>
-      <c r="J171" t="n">
-        <v>52</v>
-      </c>
-      <c r="K171" t="s">
-        <v>16</v>
-      </c>
-      <c r="L171" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B172" t="s">
-        <v>58</v>
-      </c>
-      <c r="C172"/>
-      <c r="D172"/>
-      <c r="E172" t="s">
-        <v>59</v>
-      </c>
-      <c r="F172" t="n">
-        <v>2</v>
-      </c>
-      <c r="G172" t="n">
-        <v>205</v>
-      </c>
-      <c r="H172" t="n">
-        <v>40</v>
-      </c>
-      <c r="I172" t="s">
-        <v>31</v>
-      </c>
-      <c r="J172" t="n">
-        <v>53</v>
-      </c>
-      <c r="K172" t="s">
-        <v>16</v>
-      </c>
-      <c r="L172"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B173" t="s">
-        <v>58</v>
-      </c>
-      <c r="C173"/>
-      <c r="D173"/>
-      <c r="E173" t="s">
-        <v>59</v>
-      </c>
-      <c r="F173" t="n">
-        <v>3</v>
-      </c>
-      <c r="G173" t="n">
-        <v>206</v>
-      </c>
-      <c r="H173" t="n">
-        <v>40</v>
-      </c>
-      <c r="I173" t="s">
-        <v>15</v>
-      </c>
-      <c r="J173" t="n">
-        <v>93</v>
-      </c>
-      <c r="K173" t="s">
-        <v>16</v>
-      </c>
-      <c r="L173" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B174" t="s">
-        <v>58</v>
-      </c>
-      <c r="C174"/>
-      <c r="D174"/>
-      <c r="E174" t="s">
-        <v>59</v>
-      </c>
-      <c r="F174" t="n">
-        <v>4</v>
-      </c>
-      <c r="G174" t="n">
-        <v>207</v>
-      </c>
-      <c r="H174" t="n">
-        <v>40</v>
-      </c>
-      <c r="I174" t="s">
-        <v>15</v>
-      </c>
-      <c r="J174" t="n">
-        <v>94</v>
-      </c>
-      <c r="K174" t="s">
-        <v>16</v>
-      </c>
-      <c r="L174"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B175" t="s">
-        <v>58</v>
-      </c>
-      <c r="C175"/>
-      <c r="D175"/>
-      <c r="E175" t="s">
-        <v>62</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1</v>
-      </c>
-      <c r="G175" t="n">
-        <v>208</v>
-      </c>
-      <c r="H175" t="n">
-        <v>40</v>
-      </c>
-      <c r="I175" t="s">
-        <v>30</v>
-      </c>
-      <c r="J175" t="n">
-        <v>53</v>
-      </c>
-      <c r="K175" t="s">
-        <v>16</v>
-      </c>
-      <c r="L175" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B176" t="s">
-        <v>58</v>
-      </c>
-      <c r="C176"/>
-      <c r="D176"/>
-      <c r="E176" t="s">
-        <v>62</v>
-      </c>
-      <c r="F176" t="n">
-        <v>2</v>
-      </c>
-      <c r="G176" t="n">
-        <v>209</v>
-      </c>
-      <c r="H176" t="n">
-        <v>40</v>
-      </c>
-      <c r="I176" t="s">
-        <v>31</v>
-      </c>
-      <c r="J176"/>
-      <c r="K176" t="s">
-        <v>16</v>
-      </c>
-      <c r="L176"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B177" t="s">
-        <v>58</v>
-      </c>
-      <c r="C177"/>
-      <c r="D177"/>
-      <c r="E177" t="s">
-        <v>62</v>
-      </c>
-      <c r="F177" t="n">
-        <v>3</v>
-      </c>
-      <c r="G177" t="n">
-        <v>210</v>
-      </c>
-      <c r="H177" t="n">
-        <v>40</v>
-      </c>
-      <c r="I177" t="s">
-        <v>15</v>
-      </c>
-      <c r="J177" t="n">
-        <v>95</v>
-      </c>
-      <c r="K177" t="s">
-        <v>16</v>
-      </c>
-      <c r="L177"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B178" t="s">
-        <v>58</v>
-      </c>
-      <c r="C178"/>
-      <c r="D178"/>
-      <c r="E178" t="s">
-        <v>62</v>
-      </c>
-      <c r="F178" t="n">
-        <v>4</v>
-      </c>
-      <c r="G178" t="n">
-        <v>211</v>
-      </c>
-      <c r="H178" t="n">
-        <v>40</v>
-      </c>
-      <c r="I178" t="s">
-        <v>15</v>
-      </c>
-      <c r="J178" t="n">
-        <v>96</v>
-      </c>
-      <c r="K178" t="s">
-        <v>16</v>
-      </c>
-      <c r="L178" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B179" t="s">
-        <v>58</v>
-      </c>
-      <c r="C179"/>
-      <c r="D179"/>
-      <c r="E179" t="s">
-        <v>62</v>
-      </c>
-      <c r="F179" t="n">
-        <v>5</v>
-      </c>
-      <c r="G179" t="n">
-        <v>212</v>
-      </c>
-      <c r="H179" t="n">
-        <v>40</v>
-      </c>
-      <c r="I179" t="s">
-        <v>15</v>
-      </c>
-      <c r="J179" t="n">
-        <v>97</v>
-      </c>
-      <c r="K179" t="s">
-        <v>16</v>
-      </c>
-      <c r="L179"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cop_data_final.xlsx
+++ b/cop_data_final.xlsx
@@ -1,211 +1,218 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://niva365-my.sharepoint.com/personal/kristina_kvile_niva_no/Documents/SeedMoney-KVI-2021/CopeLinkExp2021/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_E8024EEA86E1BB4B576384CC1619AE1D71CAC469" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EAE9754-E523-4D43-A43D-0C34B20CA0DD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="62">
   <si>
-    <t xml:space="preserve">DATE</t>
+    <t>DATE</t>
   </si>
   <si>
-    <t xml:space="preserve">EXPERIMENT</t>
+    <t>EXPERIMENT</t>
   </si>
   <si>
-    <t xml:space="preserve">WHEEL</t>
+    <t>WHEEL</t>
   </si>
   <si>
-    <t xml:space="preserve">BOTTLE</t>
+    <t>BOTTLE</t>
   </si>
   <si>
-    <t xml:space="preserve">TREATMENT</t>
+    <t>TREATMENT</t>
   </si>
   <si>
-    <t xml:space="preserve">IND</t>
+    <t>IND</t>
   </si>
   <si>
-    <t xml:space="preserve">IMG</t>
+    <t>IMG</t>
   </si>
   <si>
-    <t xml:space="preserve">MAG</t>
+    <t>MAG</t>
   </si>
   <si>
-    <t xml:space="preserve">PRES</t>
+    <t>PRES</t>
   </si>
   <si>
-    <t xml:space="preserve">TUBE</t>
+    <t>TUBE</t>
   </si>
   <si>
-    <t xml:space="preserve">STAGE</t>
+    <t>STAGE</t>
   </si>
   <si>
-    <t xml:space="preserve">COMMENT</t>
+    <t>COMMENT</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
+    <t>E</t>
   </si>
   <si>
-    <t xml:space="preserve">NONE</t>
+    <t>NONE</t>
   </si>
   <si>
-    <t xml:space="preserve">ETHANOL</t>
+    <t>ETHANOL</t>
   </si>
   <si>
-    <t xml:space="preserve">F</t>
+    <t>F</t>
   </si>
   <si>
-    <t xml:space="preserve">With Rhodomonas?</t>
+    <t>With Rhodomonas?</t>
   </si>
   <si>
-    <t xml:space="preserve">PHYTO</t>
+    <t>PHYTO</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
+    <t>C</t>
   </si>
   <si>
-    <t xml:space="preserve">SACLA-FE</t>
+    <t>SACLA-FE</t>
   </si>
   <si>
-    <t xml:space="preserve">With eggs</t>
+    <t>With eggs</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
+    <t>A</t>
   </si>
   <si>
-    <t xml:space="preserve">Lost the rest of the batch in the sink</t>
+    <t>Lost the rest of the batch in the sink</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
+    <t>B</t>
   </si>
   <si>
-    <t xml:space="preserve">SACLA-FR</t>
+    <t>SACLA-FR</t>
   </si>
   <si>
-    <t xml:space="preserve">Dead</t>
+    <t>Dead</t>
   </si>
   <si>
-    <t xml:space="preserve">C5</t>
+    <t>C5</t>
   </si>
   <si>
-    <t xml:space="preserve">D</t>
+    <t>D</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
+    <t>2</t>
   </si>
   <si>
-    <t xml:space="preserve">QUICK-EXTRACT</t>
+    <t>QUICK-EXTRACT</t>
   </si>
   <si>
-    <t xml:space="preserve">ATL</t>
+    <t>ATL</t>
   </si>
   <si>
-    <t xml:space="preserve">1 dead copepod in the bottle</t>
+    <t>1 dead copepod in the bottle</t>
   </si>
   <si>
-    <t xml:space="preserve">LAMHY-FE</t>
+    <t>LAMHY-FE</t>
   </si>
   <si>
-    <t xml:space="preserve">F/C5?</t>
+    <t>F/C5?</t>
   </si>
   <si>
-    <t xml:space="preserve">2 dead copepods in the bottle - probably too high particle concentration</t>
+    <t>2 dead copepods in the bottle - probably too high particle concentration</t>
   </si>
   <si>
-    <t xml:space="preserve">Seemed a bit slow</t>
+    <t>Seemed a bit slow</t>
   </si>
   <si>
-    <t xml:space="preserve">LAMHY-FR</t>
+    <t>LAMHY-FR</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
+    <t>3</t>
   </si>
   <si>
-    <t xml:space="preserve">With stomach content</t>
+    <t>With stomach content</t>
   </si>
   <si>
-    <t xml:space="preserve">And img 96</t>
+    <t>And img 96</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
+    <t>4</t>
   </si>
   <si>
-    <t xml:space="preserve">A bit crushed</t>
+    <t>A bit crushed</t>
   </si>
   <si>
-    <t xml:space="preserve">M</t>
+    <t>M</t>
   </si>
   <si>
-    <t xml:space="preserve">Seemed a bit slow, maybe dead?</t>
+    <t>Seemed a bit slow, maybe dead?</t>
   </si>
   <si>
-    <t xml:space="preserve">Slow, but not dead</t>
+    <t>Slow, but not dead</t>
   </si>
   <si>
-    <t xml:space="preserve">Slow, but not dead. Green stuff in stomach!</t>
+    <t>Slow, but not dead. Green stuff in stomach!</t>
   </si>
   <si>
-    <t xml:space="preserve">Almost dead</t>
+    <t>Almost dead</t>
   </si>
   <si>
-    <t xml:space="preserve">5A</t>
+    <t>5A</t>
   </si>
   <si>
-    <t xml:space="preserve">G</t>
+    <t>G</t>
   </si>
   <si>
-    <t xml:space="preserve">All dead or almost dead, preserved together (6)</t>
+    <t>All dead or almost dead, preserved together (6)</t>
   </si>
   <si>
-    <t xml:space="preserve">H</t>
+    <t>H</t>
   </si>
   <si>
-    <t xml:space="preserve">5B</t>
+    <t>5B</t>
   </si>
   <si>
-    <t xml:space="preserve">All six copepods live and fast</t>
+    <t>All six copepods live and fast</t>
   </si>
   <si>
-    <t xml:space="preserve">And img 177. Egg or pellet on its way out?</t>
+    <t>And img 177. Egg or pellet on its way out?</t>
   </si>
   <si>
-    <t xml:space="preserve">TEST-MS222</t>
+    <t>TEST-MS222</t>
   </si>
   <si>
-    <t xml:space="preserve">SACLA-FE-SEDATED</t>
+    <t>SACLA-FE-SEDATED</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5 mL SACLA-FE in 1L bottle for about 1 min after sedation in MS-222</t>
+    <t>6.5 mL SACLA-FE in 1L bottle for about 1 min after sedation in MS-222</t>
   </si>
   <si>
-    <t xml:space="preserve">Detritus at tail?</t>
+    <t>Detritus at tail?</t>
   </si>
   <si>
-    <t xml:space="preserve">LAMHY-FE-SEDATED</t>
+    <t>LAMHY-FE-SEDATED</t>
   </si>
   <si>
-    <t xml:space="preserve">140 mL LAMHY-FE in 1L bottle for about 1 min after sedation in MS-222</t>
+    <t>140 mL LAMHY-FE in 1L bottle for about 1 min after sedation in MS-222</t>
   </si>
   <si>
-    <t xml:space="preserve">Pellet coming out.</t>
+    <t>Pellet coming out.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -241,12 +248,21 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -528,14 +544,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L161"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,14 +591,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
         <v>44364</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -589,34 +607,33 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>40</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="L2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
         <v>44364</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
@@ -625,34 +642,33 @@
       <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>40</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
       </c>
-      <c r="L3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
         <v>44364</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
@@ -661,19 +677,19 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>40</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
@@ -683,14 +699,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
         <v>44364</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
@@ -699,34 +715,33 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>7</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>40</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
       </c>
-      <c r="L5"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
         <v>44364</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
@@ -735,34 +750,33 @@
       <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>8</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>40</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
       </c>
-      <c r="L6"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
         <v>44364</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
@@ -771,34 +785,33 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>9</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>40</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>6</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
         <v>44364</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
@@ -807,34 +820,33 @@
       <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <v>10</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>40</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>7</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
       </c>
-      <c r="L8"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
         <v>44364</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
@@ -843,34 +855,33 @@
       <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>11</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>40</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>8</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
       </c>
-      <c r="L9"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
         <v>44364</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
@@ -879,34 +890,33 @@
       <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>12</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>40</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>9</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
       </c>
-      <c r="L10"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
         <v>44364</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
@@ -915,34 +925,33 @@
       <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>13</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>40</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>10</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
       </c>
-      <c r="L11"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
         <v>44364</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
@@ -951,34 +960,33 @@
       <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>6</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>14</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>40</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>11</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
       </c>
-      <c r="L12"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1">
         <v>44364</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
@@ -987,34 +995,33 @@
       <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>15</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
         <v>40</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>12</v>
       </c>
       <c r="K13" t="s">
         <v>16</v>
       </c>
-      <c r="L13"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1">
         <v>44364</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
@@ -1023,34 +1030,33 @@
       <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14">
         <v>40</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>13</v>
       </c>
       <c r="K14" t="s">
         <v>16</v>
       </c>
-      <c r="L14"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1">
         <v>44364</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
@@ -1059,34 +1065,33 @@
       <c r="E15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>17</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>40</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>14</v>
       </c>
       <c r="K15" t="s">
         <v>16</v>
       </c>
-      <c r="L15"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1">
         <v>44364</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
@@ -1095,19 +1100,19 @@
       <c r="E16" t="s">
         <v>20</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>4</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>18</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>40</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>15</v>
       </c>
       <c r="K16" t="s">
@@ -1117,14 +1122,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1">
         <v>44364</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
@@ -1133,34 +1138,33 @@
       <c r="E17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>5</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>19</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>40</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>16</v>
       </c>
       <c r="K17" t="s">
         <v>16</v>
       </c>
-      <c r="L17"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1">
         <v>44364</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
@@ -1169,34 +1173,33 @@
       <c r="E18" t="s">
         <v>20</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>6</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>20</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>40</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>17</v>
       </c>
       <c r="K18" t="s">
         <v>16</v>
       </c>
-      <c r="L18"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1">
         <v>44364</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
@@ -1205,19 +1208,19 @@
       <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>21</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>40</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>18</v>
       </c>
       <c r="K19" t="s">
@@ -1227,14 +1230,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1">
         <v>44364</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
@@ -1243,19 +1246,19 @@
       <c r="E20" t="s">
         <v>25</v>
       </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>22</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>40</v>
       </c>
       <c r="I20" t="s">
         <v>15</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>19</v>
       </c>
       <c r="K20" t="s">
@@ -1265,14 +1268,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1">
         <v>44364</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
@@ -1281,34 +1284,33 @@
       <c r="E21" t="s">
         <v>25</v>
       </c>
-      <c r="F21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
         <v>23</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>40</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>20</v>
       </c>
       <c r="K21" t="s">
         <v>16</v>
       </c>
-      <c r="L21"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1">
         <v>44364</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
@@ -1317,34 +1319,33 @@
       <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>3</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>24</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>40</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>21</v>
       </c>
       <c r="K22" t="s">
         <v>16</v>
       </c>
-      <c r="L22"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1">
         <v>44364</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
@@ -1353,34 +1354,33 @@
       <c r="E23" t="s">
         <v>25</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>4</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>25</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>40</v>
       </c>
       <c r="I23" t="s">
         <v>15</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>22</v>
       </c>
       <c r="K23" t="s">
         <v>16</v>
       </c>
-      <c r="L23"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1">
         <v>44364</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
@@ -1389,34 +1389,33 @@
       <c r="E24" t="s">
         <v>25</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>5</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>26</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>40</v>
       </c>
       <c r="I24" t="s">
         <v>15</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>23</v>
       </c>
       <c r="K24" t="s">
         <v>16</v>
       </c>
-      <c r="L24"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1">
         <v>44364</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
@@ -1425,34 +1424,33 @@
       <c r="E25" t="s">
         <v>25</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>6</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>27</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>40</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>24</v>
       </c>
       <c r="K25" t="s">
         <v>27</v>
       </c>
-      <c r="L25"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1">
         <v>44364</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
@@ -1461,34 +1459,33 @@
       <c r="E26" t="s">
         <v>25</v>
       </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>28</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>40</v>
       </c>
       <c r="I26" t="s">
         <v>15</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>25</v>
       </c>
       <c r="K26" t="s">
         <v>16</v>
       </c>
-      <c r="L26"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1">
         <v>44364</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
@@ -1497,34 +1494,33 @@
       <c r="E27" t="s">
         <v>25</v>
       </c>
-      <c r="F27" t="n">
-        <v>2</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
         <v>29</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>40</v>
       </c>
       <c r="I27" t="s">
         <v>15</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>26</v>
       </c>
       <c r="K27" t="s">
         <v>16</v>
       </c>
-      <c r="L27"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1">
         <v>44364</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
@@ -1533,34 +1529,33 @@
       <c r="E28" t="s">
         <v>25</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>3</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>30</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>40</v>
       </c>
       <c r="I28" t="s">
         <v>15</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>27</v>
       </c>
       <c r="K28" t="s">
         <v>16</v>
       </c>
-      <c r="L28"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1">
         <v>44364</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
@@ -1569,34 +1564,33 @@
       <c r="E29" t="s">
         <v>25</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>4</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>31</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>40</v>
       </c>
       <c r="I29" t="s">
         <v>15</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>28</v>
       </c>
       <c r="K29" t="s">
         <v>16</v>
       </c>
-      <c r="L29"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1">
         <v>44364</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
@@ -1605,34 +1599,33 @@
       <c r="E30" t="s">
         <v>25</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>5</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>32</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>40</v>
       </c>
       <c r="I30" t="s">
         <v>15</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>29</v>
       </c>
       <c r="K30" t="s">
         <v>16</v>
       </c>
-      <c r="L30"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1">
         <v>44365</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
@@ -1641,34 +1634,33 @@
       <c r="E31" t="s">
         <v>14</v>
       </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="n">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
         <v>37</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>40</v>
       </c>
       <c r="I31" t="s">
         <v>15</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>32</v>
       </c>
       <c r="K31" t="s">
         <v>16</v>
       </c>
-      <c r="L31"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1">
         <v>44365</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" t="s">
@@ -1677,34 +1669,33 @@
       <c r="E32" t="s">
         <v>14</v>
       </c>
-      <c r="F32" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
         <v>38</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>40</v>
       </c>
       <c r="I32" t="s">
         <v>15</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>33</v>
       </c>
       <c r="K32" t="s">
         <v>16</v>
       </c>
-      <c r="L32"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1">
         <v>44365</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
@@ -1713,34 +1704,33 @@
       <c r="E33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>3</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>39</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>40</v>
       </c>
       <c r="I33" t="s">
         <v>30</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" t="s">
         <v>16</v>
       </c>
-      <c r="L33"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1">
         <v>44365</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
@@ -1749,34 +1739,33 @@
       <c r="E34" t="s">
         <v>14</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>4</v>
       </c>
-      <c r="G34" t="n">
-        <v>40</v>
-      </c>
-      <c r="H34" t="n">
+      <c r="G34">
+        <v>40</v>
+      </c>
+      <c r="H34">
         <v>40</v>
       </c>
       <c r="I34" t="s">
         <v>30</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>2</v>
       </c>
       <c r="K34" t="s">
         <v>16</v>
       </c>
-      <c r="L34"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1">
         <v>44365</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" t="s">
@@ -1785,34 +1774,33 @@
       <c r="E35" t="s">
         <v>14</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>5</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>41</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>40</v>
       </c>
       <c r="I35" t="s">
         <v>31</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>1</v>
       </c>
       <c r="K35" t="s">
         <v>16</v>
       </c>
-      <c r="L35"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1">
         <v>44365</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
@@ -1821,19 +1809,19 @@
       <c r="E36" t="s">
         <v>18</v>
       </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <v>42</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>40</v>
       </c>
       <c r="I36" t="s">
         <v>15</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>34</v>
       </c>
       <c r="K36" t="s">
@@ -1843,14 +1831,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1">
         <v>44365</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>2</v>
       </c>
       <c r="D37" t="s">
@@ -1859,34 +1847,33 @@
       <c r="E37" t="s">
         <v>18</v>
       </c>
-      <c r="F37" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
         <v>43</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>40</v>
       </c>
       <c r="I37" t="s">
         <v>30</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>3</v>
       </c>
       <c r="K37" t="s">
         <v>16</v>
       </c>
-      <c r="L37"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1">
         <v>44365</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" t="s">
@@ -1895,34 +1882,33 @@
       <c r="E38" t="s">
         <v>18</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>3</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>44</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>40</v>
       </c>
       <c r="I38" t="s">
         <v>30</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>4</v>
       </c>
       <c r="K38" t="s">
         <v>16</v>
       </c>
-      <c r="L38"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1">
         <v>44365</v>
       </c>
       <c r="B39" t="s">
         <v>29</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>2</v>
       </c>
       <c r="D39" t="s">
@@ -1931,34 +1917,33 @@
       <c r="E39" t="s">
         <v>18</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>4</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>45</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>40</v>
       </c>
       <c r="I39" t="s">
         <v>31</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>2</v>
       </c>
       <c r="K39" t="s">
         <v>16</v>
       </c>
-      <c r="L39"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1">
         <v>44365</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>2</v>
       </c>
       <c r="D40" t="s">
@@ -1967,34 +1952,33 @@
       <c r="E40" t="s">
         <v>18</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>5</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>46</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>40</v>
       </c>
       <c r="I40" t="s">
         <v>31</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>3</v>
       </c>
       <c r="K40" t="s">
         <v>27</v>
       </c>
-      <c r="L40"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1">
         <v>44365</v>
       </c>
       <c r="B41" t="s">
         <v>29</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>2</v>
       </c>
       <c r="D41" t="s">
@@ -2003,34 +1987,33 @@
       <c r="E41" t="s">
         <v>33</v>
       </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
         <v>47</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>40</v>
       </c>
       <c r="I41" t="s">
         <v>15</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>35</v>
       </c>
       <c r="K41" t="s">
         <v>16</v>
       </c>
-      <c r="L41"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1">
         <v>44365</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
@@ -2039,34 +2022,33 @@
       <c r="E42" t="s">
         <v>33</v>
       </c>
-      <c r="F42" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
         <v>48</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>40</v>
       </c>
       <c r="I42" t="s">
         <v>15</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>36</v>
       </c>
       <c r="K42" t="s">
         <v>34</v>
       </c>
-      <c r="L42"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1">
         <v>44365</v>
       </c>
       <c r="B43" t="s">
         <v>29</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>2</v>
       </c>
       <c r="D43" t="s">
@@ -2075,34 +2057,33 @@
       <c r="E43" t="s">
         <v>33</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>3</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>49</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>40</v>
       </c>
       <c r="I43" t="s">
         <v>30</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>5</v>
       </c>
       <c r="K43" t="s">
         <v>16</v>
       </c>
-      <c r="L43"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1">
         <v>44365</v>
       </c>
       <c r="B44" t="s">
         <v>29</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" t="s">
@@ -2111,34 +2092,33 @@
       <c r="E44" t="s">
         <v>33</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>4</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>50</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>40</v>
       </c>
       <c r="I44" t="s">
         <v>30</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>6</v>
       </c>
       <c r="K44" t="s">
         <v>16</v>
       </c>
-      <c r="L44"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1">
         <v>44365</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>2</v>
       </c>
       <c r="D45" t="s">
@@ -2147,34 +2127,33 @@
       <c r="E45" t="s">
         <v>33</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>5</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>51</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>40</v>
       </c>
       <c r="I45" t="s">
         <v>31</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>4</v>
       </c>
       <c r="K45" t="s">
         <v>16</v>
       </c>
-      <c r="L45"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1">
         <v>44365</v>
       </c>
       <c r="B46" t="s">
         <v>29</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>2</v>
       </c>
       <c r="D46" t="s">
@@ -2183,34 +2162,33 @@
       <c r="E46" t="s">
         <v>33</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>6</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>52</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>40</v>
       </c>
       <c r="I46" t="s">
         <v>31</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>5</v>
       </c>
       <c r="K46" t="s">
         <v>16</v>
       </c>
-      <c r="L46"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1">
         <v>44365</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" t="s">
@@ -2219,19 +2197,19 @@
       <c r="E47" t="s">
         <v>33</v>
       </c>
-      <c r="F47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" t="n">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
         <v>53</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>40</v>
       </c>
       <c r="I47" t="s">
         <v>15</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>37</v>
       </c>
       <c r="K47" t="s">
@@ -2241,14 +2219,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1">
         <v>44365</v>
       </c>
       <c r="B48" t="s">
         <v>29</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>2</v>
       </c>
       <c r="D48" t="s">
@@ -2257,34 +2235,33 @@
       <c r="E48" t="s">
         <v>33</v>
       </c>
-      <c r="F48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" t="n">
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
         <v>54</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>40</v>
       </c>
       <c r="I48" t="s">
         <v>15</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>38</v>
       </c>
       <c r="K48" t="s">
         <v>16</v>
       </c>
-      <c r="L48"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1">
         <v>44365</v>
       </c>
       <c r="B49" t="s">
         <v>29</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
@@ -2293,19 +2270,19 @@
       <c r="E49" t="s">
         <v>33</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>3</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>55</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>40</v>
       </c>
       <c r="I49" t="s">
         <v>30</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>7</v>
       </c>
       <c r="K49" t="s">
@@ -2315,14 +2292,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1">
         <v>44365</v>
       </c>
       <c r="B50" t="s">
         <v>29</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>2</v>
       </c>
       <c r="D50" t="s">
@@ -2331,34 +2308,33 @@
       <c r="E50" t="s">
         <v>33</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>4</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>56</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>40</v>
       </c>
       <c r="I50" t="s">
         <v>30</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>8</v>
       </c>
       <c r="K50" t="s">
         <v>16</v>
       </c>
-      <c r="L50"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1">
         <v>44365</v>
       </c>
       <c r="B51" t="s">
         <v>29</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>2</v>
       </c>
       <c r="D51" t="s">
@@ -2367,34 +2343,33 @@
       <c r="E51" t="s">
         <v>37</v>
       </c>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" t="n">
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
         <v>57</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>40</v>
       </c>
       <c r="I51" t="s">
         <v>31</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>6</v>
       </c>
       <c r="K51" t="s">
         <v>16</v>
       </c>
-      <c r="L51"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1">
         <v>44365</v>
       </c>
       <c r="B52" t="s">
         <v>29</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>2</v>
       </c>
       <c r="D52" t="s">
@@ -2403,34 +2378,33 @@
       <c r="E52" t="s">
         <v>37</v>
       </c>
-      <c r="F52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G52" t="n">
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
         <v>58</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>40</v>
       </c>
       <c r="I52" t="s">
         <v>31</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>7</v>
       </c>
       <c r="K52" t="s">
         <v>16</v>
       </c>
-      <c r="L52"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1">
         <v>44365</v>
       </c>
       <c r="B53" t="s">
         <v>29</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>2</v>
       </c>
       <c r="D53" t="s">
@@ -2439,34 +2413,33 @@
       <c r="E53" t="s">
         <v>37</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>3</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>59</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>40</v>
       </c>
       <c r="I53" t="s">
         <v>30</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>9</v>
       </c>
       <c r="K53" t="s">
         <v>16</v>
       </c>
-      <c r="L53"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1">
         <v>44365</v>
       </c>
       <c r="B54" t="s">
         <v>29</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>2</v>
       </c>
       <c r="D54" t="s">
@@ -2475,34 +2448,33 @@
       <c r="E54" t="s">
         <v>37</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>4</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>60</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>40</v>
       </c>
       <c r="I54" t="s">
         <v>30</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>10</v>
       </c>
       <c r="K54" t="s">
         <v>16</v>
       </c>
-      <c r="L54"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1">
         <v>44365</v>
       </c>
       <c r="B55" t="s">
         <v>29</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>2</v>
       </c>
       <c r="D55" t="s">
@@ -2511,34 +2483,33 @@
       <c r="E55" t="s">
         <v>37</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>5</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>61</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>40</v>
       </c>
       <c r="I55" t="s">
         <v>15</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>39</v>
       </c>
       <c r="K55" t="s">
         <v>16</v>
       </c>
-      <c r="L55"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1">
         <v>44365</v>
       </c>
       <c r="B56" t="s">
         <v>29</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>2</v>
       </c>
       <c r="D56" t="s">
@@ -2547,34 +2518,33 @@
       <c r="E56" t="s">
         <v>37</v>
       </c>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" t="n">
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
         <v>62</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>40</v>
       </c>
       <c r="I56" t="s">
         <v>15</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>40</v>
       </c>
       <c r="K56" t="s">
         <v>16</v>
       </c>
-      <c r="L56"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1">
         <v>44365</v>
       </c>
       <c r="B57" t="s">
         <v>29</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>2</v>
       </c>
       <c r="D57" t="s">
@@ -2583,34 +2553,33 @@
       <c r="E57" t="s">
         <v>37</v>
       </c>
-      <c r="F57" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
         <v>63</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>40</v>
       </c>
       <c r="I57" t="s">
         <v>15</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>41</v>
       </c>
       <c r="K57" t="s">
         <v>16</v>
       </c>
-      <c r="L57"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1">
         <v>44365</v>
       </c>
       <c r="B58" t="s">
         <v>29</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>2</v>
       </c>
       <c r="D58" t="s">
@@ -2619,34 +2588,33 @@
       <c r="E58" t="s">
         <v>37</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>3</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>64</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>40</v>
       </c>
       <c r="I58" t="s">
         <v>30</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>11</v>
       </c>
       <c r="K58" t="s">
         <v>16</v>
       </c>
-      <c r="L58"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1">
         <v>44365</v>
       </c>
       <c r="B59" t="s">
         <v>29</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>2</v>
       </c>
       <c r="D59" t="s">
@@ -2655,34 +2623,33 @@
       <c r="E59" t="s">
         <v>37</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>4</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>65</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>40</v>
       </c>
       <c r="I59" t="s">
         <v>30</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>12</v>
       </c>
       <c r="K59" t="s">
         <v>16</v>
       </c>
-      <c r="L59"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1">
         <v>44365</v>
       </c>
       <c r="B60" t="s">
         <v>29</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>2</v>
       </c>
       <c r="D60" t="s">
@@ -2691,34 +2658,33 @@
       <c r="E60" t="s">
         <v>37</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>5</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>66</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>40</v>
       </c>
       <c r="I60" t="s">
         <v>31</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>8</v>
       </c>
       <c r="K60" t="s">
         <v>16</v>
       </c>
-      <c r="L60"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1">
         <v>44365</v>
       </c>
       <c r="B61" t="s">
         <v>29</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>2</v>
       </c>
       <c r="D61" t="s">
@@ -2727,34 +2693,33 @@
       <c r="E61" t="s">
         <v>37</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>6</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>67</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>40</v>
       </c>
       <c r="I61" t="s">
         <v>31</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>9</v>
       </c>
       <c r="K61" t="s">
         <v>16</v>
       </c>
-      <c r="L61"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1">
         <v>44369</v>
       </c>
       <c r="B62" t="s">
         <v>38</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" t="s">
@@ -2763,34 +2728,33 @@
       <c r="E62" t="s">
         <v>18</v>
       </c>
-      <c r="F62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" t="n">
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
         <v>79</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>40</v>
       </c>
       <c r="I62" t="s">
         <v>31</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>12</v>
       </c>
       <c r="K62" t="s">
         <v>16</v>
       </c>
-      <c r="L62"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1">
         <v>44369</v>
       </c>
       <c r="B63" t="s">
         <v>38</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" t="s">
@@ -2799,34 +2763,33 @@
       <c r="E63" t="s">
         <v>18</v>
       </c>
-      <c r="F63" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" t="n">
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
         <v>80</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>40</v>
       </c>
       <c r="I63" t="s">
         <v>31</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>13</v>
       </c>
       <c r="K63" t="s">
         <v>16</v>
       </c>
-      <c r="L63"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1">
         <v>44369</v>
       </c>
       <c r="B64" t="s">
         <v>38</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" t="s">
@@ -2835,34 +2798,33 @@
       <c r="E64" t="s">
         <v>18</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>3</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>81</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>40</v>
       </c>
       <c r="I64" t="s">
         <v>30</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>15</v>
       </c>
       <c r="K64" t="s">
         <v>16</v>
       </c>
-      <c r="L64"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1">
         <v>44369</v>
       </c>
       <c r="B65" t="s">
         <v>38</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
@@ -2871,34 +2833,33 @@
       <c r="E65" t="s">
         <v>18</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>4</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>82</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>40</v>
       </c>
       <c r="I65" t="s">
         <v>30</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>16</v>
       </c>
       <c r="K65" t="s">
         <v>16</v>
       </c>
-      <c r="L65"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1">
         <v>44369</v>
       </c>
       <c r="B66" t="s">
         <v>38</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
@@ -2907,34 +2868,33 @@
       <c r="E66" t="s">
         <v>18</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>5</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>83</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>40</v>
       </c>
       <c r="I66" t="s">
         <v>15</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>49</v>
       </c>
       <c r="K66" t="s">
         <v>16</v>
       </c>
-      <c r="L66"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1">
         <v>44369</v>
       </c>
       <c r="B67" t="s">
         <v>38</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
@@ -2943,19 +2903,19 @@
       <c r="E67" t="s">
         <v>20</v>
       </c>
-      <c r="F67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" t="n">
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
         <v>90</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>40</v>
       </c>
       <c r="I67" t="s">
         <v>31</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>16</v>
       </c>
       <c r="K67" t="s">
@@ -2965,14 +2925,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1">
         <v>44369</v>
       </c>
       <c r="B68" t="s">
         <v>38</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" t="s">
@@ -2981,19 +2941,19 @@
       <c r="E68" t="s">
         <v>20</v>
       </c>
-      <c r="F68" t="n">
-        <v>2</v>
-      </c>
-      <c r="G68" t="n">
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
         <v>91</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>40</v>
       </c>
       <c r="I68" t="s">
         <v>31</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>17</v>
       </c>
       <c r="K68" t="s">
@@ -3003,14 +2963,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1">
         <v>44369</v>
       </c>
       <c r="B69" t="s">
         <v>38</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>1</v>
       </c>
       <c r="D69" t="s">
@@ -3019,34 +2979,33 @@
       <c r="E69" t="s">
         <v>20</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>3</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>92</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>40</v>
       </c>
       <c r="I69" t="s">
         <v>30</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>19</v>
       </c>
       <c r="K69" t="s">
         <v>16</v>
       </c>
-      <c r="L69"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1">
         <v>44369</v>
       </c>
       <c r="B70" t="s">
         <v>38</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" t="s">
@@ -3055,19 +3014,19 @@
       <c r="E70" t="s">
         <v>20</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>4</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>93</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>40</v>
       </c>
       <c r="I70" t="s">
         <v>30</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>20</v>
       </c>
       <c r="K70" t="s">
@@ -3077,14 +3036,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1">
         <v>44369</v>
       </c>
       <c r="B71" t="s">
         <v>38</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>1</v>
       </c>
       <c r="D71" t="s">
@@ -3093,19 +3052,19 @@
       <c r="E71" t="s">
         <v>20</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>5</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>94</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>40</v>
       </c>
       <c r="I71" t="s">
         <v>15</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>52</v>
       </c>
       <c r="K71" t="s">
@@ -3115,14 +3074,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1">
         <v>44369</v>
       </c>
       <c r="B72" t="s">
         <v>38</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>1</v>
       </c>
       <c r="D72" t="s">
@@ -3131,19 +3090,19 @@
       <c r="E72" t="s">
         <v>20</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>6</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>95</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>40</v>
       </c>
       <c r="I72" t="s">
         <v>15</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>53</v>
       </c>
       <c r="K72" t="s">
@@ -3153,14 +3112,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="1">
         <v>44369</v>
       </c>
       <c r="B73" t="s">
         <v>38</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" t="s">
@@ -3169,34 +3128,33 @@
       <c r="E73" t="s">
         <v>20</v>
       </c>
-      <c r="F73" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" t="n">
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
         <v>97</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>40</v>
       </c>
       <c r="I73" t="s">
         <v>30</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>21</v>
       </c>
       <c r="K73" t="s">
         <v>16</v>
       </c>
-      <c r="L73"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="1">
         <v>44369</v>
       </c>
       <c r="B74" t="s">
         <v>38</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" t="s">
@@ -3205,19 +3163,19 @@
       <c r="E74" t="s">
         <v>20</v>
       </c>
-      <c r="F74" t="n">
-        <v>2</v>
-      </c>
-      <c r="G74" t="n">
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
         <v>98</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>40</v>
       </c>
       <c r="I74" t="s">
         <v>30</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74">
         <v>22</v>
       </c>
       <c r="K74" t="s">
@@ -3227,14 +3185,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="1">
         <v>44369</v>
       </c>
       <c r="B75" t="s">
         <v>38</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" t="s">
@@ -3243,34 +3201,33 @@
       <c r="E75" t="s">
         <v>20</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>3</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>99</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>40</v>
       </c>
       <c r="I75" t="s">
         <v>15</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75">
         <v>54</v>
       </c>
       <c r="K75" t="s">
         <v>16</v>
       </c>
-      <c r="L75"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="1">
         <v>44369</v>
       </c>
       <c r="B76" t="s">
         <v>38</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" t="s">
@@ -3279,34 +3236,33 @@
       <c r="E76" t="s">
         <v>20</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>4</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>100</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>40</v>
       </c>
       <c r="I76" t="s">
         <v>15</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>55</v>
       </c>
       <c r="K76" t="s">
         <v>16</v>
       </c>
-      <c r="L76"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="1">
         <v>44369</v>
       </c>
       <c r="B77" t="s">
         <v>38</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
@@ -3315,34 +3271,33 @@
       <c r="E77" t="s">
         <v>20</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>5</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>101</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>40</v>
       </c>
       <c r="I77" t="s">
         <v>31</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77">
         <v>18</v>
       </c>
       <c r="K77" t="s">
         <v>16</v>
       </c>
-      <c r="L77"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="1">
         <v>44369</v>
       </c>
       <c r="B78" t="s">
         <v>38</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" t="s">
@@ -3351,34 +3306,33 @@
       <c r="E78" t="s">
         <v>20</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>6</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>102</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>40</v>
       </c>
       <c r="I78" t="s">
         <v>31</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78">
         <v>19</v>
       </c>
       <c r="K78" t="s">
         <v>16</v>
       </c>
-      <c r="L78"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="1">
         <v>44369</v>
       </c>
       <c r="B79" t="s">
         <v>38</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>1</v>
       </c>
       <c r="D79" t="s">
@@ -3387,19 +3341,19 @@
       <c r="E79" t="s">
         <v>14</v>
       </c>
-      <c r="F79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" t="n">
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
         <v>103</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>40</v>
       </c>
       <c r="I79" t="s">
         <v>31</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79">
         <v>20</v>
       </c>
       <c r="K79" t="s">
@@ -3409,14 +3363,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="1">
         <v>44369</v>
       </c>
       <c r="B80" t="s">
         <v>38</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>1</v>
       </c>
       <c r="D80" t="s">
@@ -3425,34 +3379,33 @@
       <c r="E80" t="s">
         <v>14</v>
       </c>
-      <c r="F80" t="n">
-        <v>2</v>
-      </c>
-      <c r="G80" t="n">
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
         <v>104</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>40</v>
       </c>
       <c r="I80" t="s">
         <v>31</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80">
         <v>21</v>
       </c>
       <c r="K80" t="s">
         <v>27</v>
       </c>
-      <c r="L80"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="1">
         <v>44369</v>
       </c>
       <c r="B81" t="s">
         <v>38</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" t="s">
@@ -3461,34 +3414,33 @@
       <c r="E81" t="s">
         <v>14</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>3</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>105</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>40</v>
       </c>
       <c r="I81" t="s">
         <v>15</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81">
         <v>56</v>
       </c>
       <c r="K81" t="s">
         <v>16</v>
       </c>
-      <c r="L81"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="1">
         <v>44369</v>
       </c>
       <c r="B82" t="s">
         <v>38</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>1</v>
       </c>
       <c r="D82" t="s">
@@ -3497,34 +3449,33 @@
       <c r="E82" t="s">
         <v>14</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>4</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>106</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>40</v>
       </c>
       <c r="I82" t="s">
         <v>15</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>57</v>
       </c>
       <c r="K82" t="s">
         <v>16</v>
       </c>
-      <c r="L82"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="1">
         <v>44369</v>
       </c>
       <c r="B83" t="s">
         <v>38</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" t="s">
@@ -3533,34 +3484,33 @@
       <c r="E83" t="s">
         <v>14</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>5</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>107</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>40</v>
       </c>
       <c r="I83" t="s">
         <v>30</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83">
         <v>23</v>
       </c>
       <c r="K83" t="s">
         <v>16</v>
       </c>
-      <c r="L83"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="1">
         <v>44369</v>
       </c>
       <c r="B84" t="s">
         <v>38</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
@@ -3569,34 +3519,33 @@
       <c r="E84" t="s">
         <v>14</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>6</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>108</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>40</v>
       </c>
       <c r="I84" t="s">
         <v>30</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84">
         <v>24</v>
       </c>
       <c r="K84" t="s">
         <v>16</v>
       </c>
-      <c r="L84"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="1">
         <v>44370</v>
       </c>
       <c r="B85" t="s">
         <v>41</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>2</v>
       </c>
       <c r="D85" t="s">
@@ -3605,34 +3554,33 @@
       <c r="E85" t="s">
         <v>33</v>
       </c>
-      <c r="F85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" t="n">
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
         <v>116</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>40</v>
       </c>
       <c r="I85" t="s">
         <v>15</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>58</v>
       </c>
       <c r="K85" t="s">
         <v>16</v>
       </c>
-      <c r="L85"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="1">
         <v>44370</v>
       </c>
       <c r="B86" t="s">
         <v>41</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>2</v>
       </c>
       <c r="D86" t="s">
@@ -3641,34 +3589,33 @@
       <c r="E86" t="s">
         <v>33</v>
       </c>
-      <c r="F86" t="n">
-        <v>2</v>
-      </c>
-      <c r="G86" t="n">
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
         <v>117</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>40</v>
       </c>
       <c r="I86" t="s">
         <v>15</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86">
         <v>59</v>
       </c>
       <c r="K86" t="s">
         <v>16</v>
       </c>
-      <c r="L86"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="1">
         <v>44370</v>
       </c>
       <c r="B87" t="s">
         <v>41</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>2</v>
       </c>
       <c r="D87" t="s">
@@ -3677,34 +3624,33 @@
       <c r="E87" t="s">
         <v>33</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>3</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>118</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>40</v>
       </c>
       <c r="I87" t="s">
         <v>30</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87">
         <v>25</v>
       </c>
       <c r="K87" t="s">
         <v>16</v>
       </c>
-      <c r="L87"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="1">
         <v>44370</v>
       </c>
       <c r="B88" t="s">
         <v>41</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>2</v>
       </c>
       <c r="D88" t="s">
@@ -3713,34 +3659,33 @@
       <c r="E88" t="s">
         <v>33</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>4</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>119</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>40</v>
       </c>
       <c r="I88" t="s">
         <v>30</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88">
         <v>26</v>
       </c>
       <c r="K88" t="s">
         <v>16</v>
       </c>
-      <c r="L88"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="1">
         <v>44370</v>
       </c>
       <c r="B89" t="s">
         <v>41</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>2</v>
       </c>
       <c r="D89" t="s">
@@ -3749,34 +3694,33 @@
       <c r="E89" t="s">
         <v>33</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>5</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>120</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>40</v>
       </c>
       <c r="I89" t="s">
         <v>31</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89">
         <v>28</v>
       </c>
       <c r="K89" t="s">
         <v>16</v>
       </c>
-      <c r="L89"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="1">
         <v>44370</v>
       </c>
       <c r="B90" t="s">
         <v>41</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>2</v>
       </c>
       <c r="D90" t="s">
@@ -3785,34 +3729,33 @@
       <c r="E90" t="s">
         <v>33</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>6</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>121</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>40</v>
       </c>
       <c r="I90" t="s">
         <v>31</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90">
         <v>29</v>
       </c>
       <c r="K90" t="s">
         <v>16</v>
       </c>
-      <c r="L90"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="1">
         <v>44370</v>
       </c>
       <c r="B91" t="s">
         <v>41</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>2</v>
       </c>
       <c r="D91" t="s">
@@ -3821,34 +3764,33 @@
       <c r="E91" t="s">
         <v>14</v>
       </c>
-      <c r="F91" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" t="n">
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
         <v>122</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>40</v>
       </c>
       <c r="I91" t="s">
         <v>31</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91">
         <v>30</v>
       </c>
       <c r="K91" t="s">
         <v>16</v>
       </c>
-      <c r="L91"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="1">
         <v>44370</v>
       </c>
       <c r="B92" t="s">
         <v>41</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>2</v>
       </c>
       <c r="D92" t="s">
@@ -3857,34 +3799,33 @@
       <c r="E92" t="s">
         <v>14</v>
       </c>
-      <c r="F92" t="n">
-        <v>2</v>
-      </c>
-      <c r="G92" t="n">
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
         <v>123</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>40</v>
       </c>
       <c r="I92" t="s">
         <v>31</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92">
         <v>31</v>
       </c>
       <c r="K92" t="s">
         <v>16</v>
       </c>
-      <c r="L92"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="1">
         <v>44370</v>
       </c>
       <c r="B93" t="s">
         <v>41</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>2</v>
       </c>
       <c r="D93" t="s">
@@ -3893,34 +3834,33 @@
       <c r="E93" t="s">
         <v>14</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>3</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>124</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>40</v>
       </c>
       <c r="I93" t="s">
         <v>30</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93">
         <v>27</v>
       </c>
       <c r="K93" t="s">
         <v>16</v>
       </c>
-      <c r="L93"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="1">
         <v>44370</v>
       </c>
       <c r="B94" t="s">
         <v>41</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>2</v>
       </c>
       <c r="D94" t="s">
@@ -3929,34 +3869,33 @@
       <c r="E94" t="s">
         <v>14</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>4</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>125</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>40</v>
       </c>
       <c r="I94" t="s">
         <v>30</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94">
         <v>28</v>
       </c>
       <c r="K94" t="s">
         <v>16</v>
       </c>
-      <c r="L94"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="1">
         <v>44370</v>
       </c>
       <c r="B95" t="s">
         <v>41</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>2</v>
       </c>
       <c r="D95" t="s">
@@ -3965,34 +3904,33 @@
       <c r="E95" t="s">
         <v>14</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>5</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>126</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>40</v>
       </c>
       <c r="I95" t="s">
         <v>15</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95">
         <v>60</v>
       </c>
       <c r="K95" t="s">
         <v>16</v>
       </c>
-      <c r="L95"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="1">
         <v>44370</v>
       </c>
       <c r="B96" t="s">
         <v>41</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>2</v>
       </c>
       <c r="D96" t="s">
@@ -4001,34 +3939,33 @@
       <c r="E96" t="s">
         <v>14</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>6</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>127</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>40</v>
       </c>
       <c r="I96" t="s">
         <v>15</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96">
         <v>61</v>
       </c>
       <c r="K96" t="s">
         <v>16</v>
       </c>
-      <c r="L96"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="1">
         <v>44370</v>
       </c>
       <c r="B97" t="s">
         <v>41</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>2</v>
       </c>
       <c r="D97" t="s">
@@ -4037,34 +3974,33 @@
       <c r="E97" t="s">
         <v>33</v>
       </c>
-      <c r="F97" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" t="n">
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
         <v>128</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>40</v>
       </c>
       <c r="I97" t="s">
         <v>15</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J97">
         <v>62</v>
       </c>
       <c r="K97" t="s">
         <v>16</v>
       </c>
-      <c r="L97"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="1">
         <v>44370</v>
       </c>
       <c r="B98" t="s">
         <v>41</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>2</v>
       </c>
       <c r="D98" t="s">
@@ -4073,34 +4009,33 @@
       <c r="E98" t="s">
         <v>33</v>
       </c>
-      <c r="F98" t="n">
-        <v>2</v>
-      </c>
-      <c r="G98" t="n">
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
         <v>129</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>40</v>
       </c>
       <c r="I98" t="s">
         <v>15</v>
       </c>
-      <c r="J98" t="n">
+      <c r="J98">
         <v>63</v>
       </c>
       <c r="K98" t="s">
         <v>16</v>
       </c>
-      <c r="L98"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="1">
         <v>44370</v>
       </c>
       <c r="B99" t="s">
         <v>41</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>2</v>
       </c>
       <c r="D99" t="s">
@@ -4109,19 +4044,19 @@
       <c r="E99" t="s">
         <v>33</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>3</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>130</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>40</v>
       </c>
       <c r="I99" t="s">
         <v>30</v>
       </c>
-      <c r="J99" t="n">
+      <c r="J99">
         <v>29</v>
       </c>
       <c r="K99" t="s">
@@ -4131,14 +4066,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="1">
         <v>44370</v>
       </c>
       <c r="B100" t="s">
         <v>41</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>2</v>
       </c>
       <c r="D100" t="s">
@@ -4147,19 +4082,19 @@
       <c r="E100" t="s">
         <v>33</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>4</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>131</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>40</v>
       </c>
       <c r="I100" t="s">
         <v>30</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J100">
         <v>30</v>
       </c>
       <c r="K100" t="s">
@@ -4169,14 +4104,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="1">
         <v>44370</v>
       </c>
       <c r="B101" t="s">
         <v>41</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>2</v>
       </c>
       <c r="D101" t="s">
@@ -4185,34 +4120,33 @@
       <c r="E101" t="s">
         <v>33</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>5</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>132</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>40</v>
       </c>
       <c r="I101" t="s">
         <v>31</v>
       </c>
-      <c r="J101" t="n">
+      <c r="J101">
         <v>32</v>
       </c>
       <c r="K101" t="s">
         <v>16</v>
       </c>
-      <c r="L101"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="1">
         <v>44370</v>
       </c>
       <c r="B102" t="s">
         <v>41</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>2</v>
       </c>
       <c r="D102" t="s">
@@ -4221,34 +4155,33 @@
       <c r="E102" t="s">
         <v>33</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>6</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>133</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102">
         <v>40</v>
       </c>
       <c r="I102" t="s">
         <v>31</v>
       </c>
-      <c r="J102" t="n">
+      <c r="J102">
         <v>33</v>
       </c>
       <c r="K102" t="s">
         <v>16</v>
       </c>
-      <c r="L102"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="1">
         <v>44370</v>
       </c>
       <c r="B103" t="s">
         <v>41</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>2</v>
       </c>
       <c r="D103" t="s">
@@ -4257,34 +4190,33 @@
       <c r="E103" t="s">
         <v>18</v>
       </c>
-      <c r="F103" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" t="n">
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
         <v>134</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>40</v>
       </c>
       <c r="I103" t="s">
         <v>31</v>
       </c>
-      <c r="J103" t="n">
+      <c r="J103">
         <v>34</v>
       </c>
       <c r="K103" t="s">
         <v>16</v>
       </c>
-      <c r="L103"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="1">
         <v>44370</v>
       </c>
       <c r="B104" t="s">
         <v>41</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>2</v>
       </c>
       <c r="D104" t="s">
@@ -4293,34 +4225,33 @@
       <c r="E104" t="s">
         <v>18</v>
       </c>
-      <c r="F104" t="n">
-        <v>2</v>
-      </c>
-      <c r="G104" t="n">
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
         <v>135</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104">
         <v>40</v>
       </c>
       <c r="I104" t="s">
         <v>31</v>
       </c>
-      <c r="J104" t="n">
+      <c r="J104">
         <v>35</v>
       </c>
       <c r="K104" t="s">
         <v>43</v>
       </c>
-      <c r="L104"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="1">
         <v>44370</v>
       </c>
       <c r="B105" t="s">
         <v>41</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>2</v>
       </c>
       <c r="D105" t="s">
@@ -4329,34 +4260,33 @@
       <c r="E105" t="s">
         <v>18</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>3</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>136</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105">
         <v>40</v>
       </c>
       <c r="I105" t="s">
         <v>30</v>
       </c>
-      <c r="J105" t="n">
+      <c r="J105">
         <v>31</v>
       </c>
       <c r="K105" t="s">
         <v>16</v>
       </c>
-      <c r="L105"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="1">
         <v>44370</v>
       </c>
       <c r="B106" t="s">
         <v>41</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>2</v>
       </c>
       <c r="D106" t="s">
@@ -4365,34 +4295,33 @@
       <c r="E106" t="s">
         <v>18</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>4</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>137</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106">
         <v>40</v>
       </c>
       <c r="I106" t="s">
         <v>30</v>
       </c>
-      <c r="J106" t="n">
+      <c r="J106">
         <v>32</v>
       </c>
       <c r="K106" t="s">
         <v>16</v>
       </c>
-      <c r="L106"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="1">
         <v>44370</v>
       </c>
       <c r="B107" t="s">
         <v>41</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>2</v>
       </c>
       <c r="D107" t="s">
@@ -4401,34 +4330,33 @@
       <c r="E107" t="s">
         <v>18</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>5</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>138</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107">
         <v>40</v>
       </c>
       <c r="I107" t="s">
         <v>15</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J107">
         <v>64</v>
       </c>
       <c r="K107" t="s">
         <v>16</v>
       </c>
-      <c r="L107"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="1">
         <v>44370</v>
       </c>
       <c r="B108" t="s">
         <v>41</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>2</v>
       </c>
       <c r="D108" t="s">
@@ -4437,34 +4365,33 @@
       <c r="E108" t="s">
         <v>18</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>6</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>139</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108">
         <v>40</v>
       </c>
       <c r="I108" t="s">
         <v>15</v>
       </c>
-      <c r="J108" t="n">
+      <c r="J108">
         <v>65</v>
       </c>
       <c r="K108" t="s">
         <v>16</v>
       </c>
-      <c r="L108"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="1">
         <v>44370</v>
       </c>
       <c r="B109" t="s">
         <v>41</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>2</v>
       </c>
       <c r="D109" t="s">
@@ -4473,34 +4400,33 @@
       <c r="E109" t="s">
         <v>37</v>
       </c>
-      <c r="F109" t="n">
-        <v>1</v>
-      </c>
-      <c r="G109" t="n">
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
         <v>140</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109">
         <v>40</v>
       </c>
       <c r="I109" t="s">
         <v>15</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J109">
         <v>66</v>
       </c>
       <c r="K109" t="s">
         <v>16</v>
       </c>
-      <c r="L109"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="1">
         <v>44370</v>
       </c>
       <c r="B110" t="s">
         <v>41</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>2</v>
       </c>
       <c r="D110" t="s">
@@ -4509,34 +4435,33 @@
       <c r="E110" t="s">
         <v>37</v>
       </c>
-      <c r="F110" t="n">
-        <v>2</v>
-      </c>
-      <c r="G110" t="n">
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
         <v>141</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110">
         <v>40</v>
       </c>
       <c r="I110" t="s">
         <v>15</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110">
         <v>67</v>
       </c>
       <c r="K110" t="s">
         <v>16</v>
       </c>
-      <c r="L110"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="1">
         <v>44370</v>
       </c>
       <c r="B111" t="s">
         <v>41</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>2</v>
       </c>
       <c r="D111" t="s">
@@ -4545,34 +4470,33 @@
       <c r="E111" t="s">
         <v>37</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>3</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>142</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H111">
         <v>40</v>
       </c>
       <c r="I111" t="s">
         <v>31</v>
       </c>
-      <c r="J111" t="n">
+      <c r="J111">
         <v>36</v>
       </c>
       <c r="K111" t="s">
         <v>16</v>
       </c>
-      <c r="L111"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="1">
         <v>44370</v>
       </c>
       <c r="B112" t="s">
         <v>41</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>2</v>
       </c>
       <c r="D112" t="s">
@@ -4581,34 +4505,33 @@
       <c r="E112" t="s">
         <v>37</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112">
         <v>4</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112">
         <v>143</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H112">
         <v>40</v>
       </c>
       <c r="I112" t="s">
         <v>31</v>
       </c>
-      <c r="J112" t="n">
+      <c r="J112">
         <v>37</v>
       </c>
       <c r="K112" t="s">
         <v>16</v>
       </c>
-      <c r="L112"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="1">
         <v>44370</v>
       </c>
       <c r="B113" t="s">
         <v>41</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>2</v>
       </c>
       <c r="D113" t="s">
@@ -4617,34 +4540,33 @@
       <c r="E113" t="s">
         <v>37</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>5</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>144</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H113">
         <v>40</v>
       </c>
       <c r="I113" t="s">
         <v>30</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J113">
         <v>33</v>
       </c>
       <c r="K113" t="s">
         <v>16</v>
       </c>
-      <c r="L113"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="1">
         <v>44370</v>
       </c>
       <c r="B114" t="s">
         <v>41</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>2</v>
       </c>
       <c r="D114" t="s">
@@ -4653,34 +4575,33 @@
       <c r="E114" t="s">
         <v>37</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114">
         <v>6</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114">
         <v>145</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H114">
         <v>40</v>
       </c>
       <c r="I114" t="s">
         <v>30</v>
       </c>
-      <c r="J114" t="n">
+      <c r="J114">
         <v>34</v>
       </c>
       <c r="K114" t="s">
         <v>16</v>
       </c>
-      <c r="L114"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="1">
         <v>44370</v>
       </c>
       <c r="B115" t="s">
         <v>41</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>2</v>
       </c>
       <c r="D115" t="s">
@@ -4689,34 +4610,33 @@
       <c r="E115" t="s">
         <v>37</v>
       </c>
-      <c r="F115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G115" t="n">
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
         <v>146</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115">
         <v>40</v>
       </c>
       <c r="I115" t="s">
         <v>30</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J115">
         <v>35</v>
       </c>
       <c r="K115" t="s">
         <v>16</v>
       </c>
-      <c r="L115"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="1">
         <v>44370</v>
       </c>
       <c r="B116" t="s">
         <v>41</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>2</v>
       </c>
       <c r="D116" t="s">
@@ -4725,19 +4645,19 @@
       <c r="E116" t="s">
         <v>37</v>
       </c>
-      <c r="F116" t="n">
-        <v>2</v>
-      </c>
-      <c r="G116" t="n">
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
         <v>147</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H116">
         <v>40</v>
       </c>
       <c r="I116" t="s">
         <v>30</v>
       </c>
-      <c r="J116" t="n">
+      <c r="J116">
         <v>36</v>
       </c>
       <c r="K116" t="s">
@@ -4747,14 +4667,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="1">
         <v>44370</v>
       </c>
       <c r="B117" t="s">
         <v>41</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>2</v>
       </c>
       <c r="D117" t="s">
@@ -4763,19 +4683,19 @@
       <c r="E117" t="s">
         <v>37</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117">
         <v>3</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117">
         <v>148</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H117">
         <v>40</v>
       </c>
       <c r="I117" t="s">
         <v>31</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J117">
         <v>38</v>
       </c>
       <c r="K117" t="s">
@@ -4785,14 +4705,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="1">
         <v>44370</v>
       </c>
       <c r="B118" t="s">
         <v>41</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>2</v>
       </c>
       <c r="D118" t="s">
@@ -4801,19 +4721,19 @@
       <c r="E118" t="s">
         <v>37</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>4</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>149</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H118">
         <v>40</v>
       </c>
       <c r="I118" t="s">
         <v>31</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J118">
         <v>39</v>
       </c>
       <c r="K118" t="s">
@@ -4823,14 +4743,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="1">
         <v>44370</v>
       </c>
       <c r="B119" t="s">
         <v>41</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>2</v>
       </c>
       <c r="D119" t="s">
@@ -4839,19 +4759,19 @@
       <c r="E119" t="s">
         <v>37</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>5</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119">
         <v>150</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H119">
         <v>40</v>
       </c>
       <c r="I119" t="s">
         <v>15</v>
       </c>
-      <c r="J119" t="n">
+      <c r="J119">
         <v>68</v>
       </c>
       <c r="K119" t="s">
@@ -4861,14 +4781,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="1">
         <v>44370</v>
       </c>
       <c r="B120" t="s">
         <v>41</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>2</v>
       </c>
       <c r="D120" t="s">
@@ -4877,19 +4797,19 @@
       <c r="E120" t="s">
         <v>37</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120">
         <v>6</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120">
         <v>152</v>
       </c>
-      <c r="H120" t="n">
+      <c r="H120">
         <v>40</v>
       </c>
       <c r="I120" t="s">
         <v>15</v>
       </c>
-      <c r="J120" t="n">
+      <c r="J120">
         <v>69</v>
       </c>
       <c r="K120" t="s">
@@ -4899,14 +4819,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="1">
         <v>44371</v>
       </c>
       <c r="B121" t="s">
         <v>48</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>2</v>
       </c>
       <c r="D121" t="s">
@@ -4915,19 +4835,19 @@
       <c r="E121" t="s">
         <v>33</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>6</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>160</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H121">
         <v>10</v>
       </c>
       <c r="I121" t="s">
         <v>15</v>
       </c>
-      <c r="J121" t="n">
+      <c r="J121">
         <v>75</v>
       </c>
       <c r="K121" t="s">
@@ -4937,14 +4857,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="1">
         <v>44371</v>
       </c>
       <c r="B122" t="s">
         <v>48</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>2</v>
       </c>
       <c r="D122" t="s">
@@ -4953,19 +4873,19 @@
       <c r="E122" t="s">
         <v>37</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122">
         <v>6</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G122">
         <v>162</v>
       </c>
-      <c r="H122" t="n">
+      <c r="H122">
         <v>25</v>
       </c>
       <c r="I122" t="s">
         <v>15</v>
       </c>
-      <c r="J122" t="n">
+      <c r="J122">
         <v>77</v>
       </c>
       <c r="K122" t="s">
@@ -4975,14 +4895,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="1">
         <v>44372</v>
       </c>
       <c r="B123" t="s">
         <v>52</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>1</v>
       </c>
       <c r="D123" t="s">
@@ -4991,34 +4911,33 @@
       <c r="E123" t="s">
         <v>14</v>
       </c>
-      <c r="F123" t="n">
-        <v>1</v>
-      </c>
-      <c r="G123" t="n">
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
         <v>163</v>
       </c>
-      <c r="H123" t="n">
+      <c r="H123">
         <v>40</v>
       </c>
       <c r="I123" t="s">
         <v>31</v>
       </c>
-      <c r="J123" t="n">
+      <c r="J123">
         <v>40</v>
       </c>
       <c r="K123" t="s">
         <v>16</v>
       </c>
-      <c r="L123"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="1">
         <v>44372</v>
       </c>
       <c r="B124" t="s">
         <v>52</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>1</v>
       </c>
       <c r="D124" t="s">
@@ -5027,34 +4946,33 @@
       <c r="E124" t="s">
         <v>14</v>
       </c>
-      <c r="F124" t="n">
-        <v>2</v>
-      </c>
-      <c r="G124" t="n">
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124">
         <v>164</v>
       </c>
-      <c r="H124" t="n">
+      <c r="H124">
         <v>40</v>
       </c>
       <c r="I124" t="s">
         <v>31</v>
       </c>
-      <c r="J124" t="n">
+      <c r="J124">
         <v>41</v>
       </c>
       <c r="K124" t="s">
         <v>16</v>
       </c>
-      <c r="L124"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="1">
         <v>44372</v>
       </c>
       <c r="B125" t="s">
         <v>52</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>1</v>
       </c>
       <c r="D125" t="s">
@@ -5063,34 +4981,33 @@
       <c r="E125" t="s">
         <v>14</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125">
         <v>3</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125">
         <v>165</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H125">
         <v>40</v>
       </c>
       <c r="I125" t="s">
         <v>30</v>
       </c>
-      <c r="J125" t="n">
+      <c r="J125">
         <v>40</v>
       </c>
       <c r="K125" t="s">
         <v>16</v>
       </c>
-      <c r="L125"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="1">
         <v>44372</v>
       </c>
       <c r="B126" t="s">
         <v>52</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>1</v>
       </c>
       <c r="D126" t="s">
@@ -5099,34 +5016,33 @@
       <c r="E126" t="s">
         <v>14</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126">
         <v>4</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126">
         <v>166</v>
       </c>
-      <c r="H126" t="n">
+      <c r="H126">
         <v>40</v>
       </c>
       <c r="I126" t="s">
         <v>30</v>
       </c>
-      <c r="J126" t="n">
+      <c r="J126">
         <v>41</v>
       </c>
       <c r="K126" t="s">
         <v>16</v>
       </c>
-      <c r="L126"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="1">
         <v>44372</v>
       </c>
       <c r="B127" t="s">
         <v>52</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>1</v>
       </c>
       <c r="D127" t="s">
@@ -5135,34 +5051,33 @@
       <c r="E127" t="s">
         <v>14</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127">
         <v>5</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127">
         <v>167</v>
       </c>
-      <c r="H127" t="n">
+      <c r="H127">
         <v>40</v>
       </c>
       <c r="I127" t="s">
         <v>15</v>
       </c>
-      <c r="J127" t="n">
+      <c r="J127">
         <v>79</v>
       </c>
       <c r="K127" t="s">
         <v>16</v>
       </c>
-      <c r="L127"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="1">
         <v>44372</v>
       </c>
       <c r="B128" t="s">
         <v>52</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>1</v>
       </c>
       <c r="D128" t="s">
@@ -5171,34 +5086,33 @@
       <c r="E128" t="s">
         <v>14</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128">
         <v>6</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G128">
         <v>168</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H128">
         <v>40</v>
       </c>
       <c r="I128" t="s">
         <v>15</v>
       </c>
-      <c r="J128" t="n">
+      <c r="J128">
         <v>80</v>
       </c>
       <c r="K128" t="s">
         <v>16</v>
       </c>
-      <c r="L128"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="1">
         <v>44372</v>
       </c>
       <c r="B129" t="s">
         <v>52</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
@@ -5207,19 +5121,19 @@
       <c r="E129" t="s">
         <v>20</v>
       </c>
-      <c r="F129" t="n">
-        <v>1</v>
-      </c>
-      <c r="G129" t="n">
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
         <v>169</v>
       </c>
-      <c r="H129" t="n">
+      <c r="H129">
         <v>40</v>
       </c>
       <c r="I129" t="s">
         <v>15</v>
       </c>
-      <c r="J129" t="n">
+      <c r="J129">
         <v>81</v>
       </c>
       <c r="K129" t="s">
@@ -5229,14 +5143,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="1">
         <v>44372</v>
       </c>
       <c r="B130" t="s">
         <v>52</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
@@ -5245,34 +5159,33 @@
       <c r="E130" t="s">
         <v>20</v>
       </c>
-      <c r="F130" t="n">
-        <v>2</v>
-      </c>
-      <c r="G130" t="n">
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130">
         <v>170</v>
       </c>
-      <c r="H130" t="n">
+      <c r="H130">
         <v>40</v>
       </c>
       <c r="I130" t="s">
         <v>15</v>
       </c>
-      <c r="J130" t="n">
+      <c r="J130">
         <v>82</v>
       </c>
       <c r="K130" t="s">
         <v>16</v>
       </c>
-      <c r="L130"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="1">
         <v>44372</v>
       </c>
       <c r="B131" t="s">
         <v>52</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>1</v>
       </c>
       <c r="D131" t="s">
@@ -5281,34 +5194,33 @@
       <c r="E131" t="s">
         <v>20</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F131">
         <v>3</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G131">
         <v>171</v>
       </c>
-      <c r="H131" t="n">
+      <c r="H131">
         <v>40</v>
       </c>
       <c r="I131" t="s">
         <v>31</v>
       </c>
-      <c r="J131" t="n">
+      <c r="J131">
         <v>42</v>
       </c>
       <c r="K131" t="s">
         <v>16</v>
       </c>
-      <c r="L131"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="1">
         <v>44372</v>
       </c>
       <c r="B132" t="s">
         <v>52</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>1</v>
       </c>
       <c r="D132" t="s">
@@ -5317,34 +5229,33 @@
       <c r="E132" t="s">
         <v>20</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F132">
         <v>4</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G132">
         <v>172</v>
       </c>
-      <c r="H132" t="n">
+      <c r="H132">
         <v>40</v>
       </c>
       <c r="I132" t="s">
         <v>31</v>
       </c>
-      <c r="J132" t="n">
+      <c r="J132">
         <v>43</v>
       </c>
       <c r="K132" t="s">
         <v>16</v>
       </c>
-      <c r="L132"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="1">
         <v>44372</v>
       </c>
       <c r="B133" t="s">
         <v>52</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>1</v>
       </c>
       <c r="D133" t="s">
@@ -5353,34 +5264,33 @@
       <c r="E133" t="s">
         <v>20</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F133">
         <v>5</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G133">
         <v>173</v>
       </c>
-      <c r="H133" t="n">
+      <c r="H133">
         <v>40</v>
       </c>
       <c r="I133" t="s">
         <v>30</v>
       </c>
-      <c r="J133" t="n">
+      <c r="J133">
         <v>42</v>
       </c>
       <c r="K133" t="s">
         <v>16</v>
       </c>
-      <c r="L133"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="1">
         <v>44372</v>
       </c>
       <c r="B134" t="s">
         <v>52</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>1</v>
       </c>
       <c r="D134" t="s">
@@ -5389,34 +5299,33 @@
       <c r="E134" t="s">
         <v>20</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F134">
         <v>6</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G134">
         <v>174</v>
       </c>
-      <c r="H134" t="n">
+      <c r="H134">
         <v>40</v>
       </c>
       <c r="I134" t="s">
         <v>30</v>
       </c>
-      <c r="J134" t="n">
+      <c r="J134">
         <v>43</v>
       </c>
       <c r="K134" t="s">
         <v>16</v>
       </c>
-      <c r="L134"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="1">
         <v>44372</v>
       </c>
       <c r="B135" t="s">
         <v>52</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
@@ -5425,19 +5334,19 @@
       <c r="E135" t="s">
         <v>25</v>
       </c>
-      <c r="F135" t="n">
-        <v>1</v>
-      </c>
-      <c r="G135" t="n">
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
         <v>175</v>
       </c>
-      <c r="H135" t="n">
+      <c r="H135">
         <v>40</v>
       </c>
       <c r="I135" t="s">
         <v>30</v>
       </c>
-      <c r="J135" t="n">
+      <c r="J135">
         <v>44</v>
       </c>
       <c r="K135" t="s">
@@ -5447,14 +5356,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="1">
         <v>44372</v>
       </c>
       <c r="B136" t="s">
         <v>52</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>1</v>
       </c>
       <c r="D136" t="s">
@@ -5463,19 +5372,19 @@
       <c r="E136" t="s">
         <v>25</v>
       </c>
-      <c r="F136" t="n">
-        <v>2</v>
-      </c>
-      <c r="G136" t="n">
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136">
         <v>176</v>
       </c>
-      <c r="H136" t="n">
+      <c r="H136">
         <v>40</v>
       </c>
       <c r="I136" t="s">
         <v>30</v>
       </c>
-      <c r="J136" t="n">
+      <c r="J136">
         <v>45</v>
       </c>
       <c r="K136" t="s">
@@ -5485,14 +5394,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="1">
         <v>44372</v>
       </c>
       <c r="B137" t="s">
         <v>52</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" t="s">
@@ -5501,34 +5410,33 @@
       <c r="E137" t="s">
         <v>25</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F137">
         <v>3</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G137">
         <v>178</v>
       </c>
-      <c r="H137" t="n">
+      <c r="H137">
         <v>40</v>
       </c>
       <c r="I137" t="s">
         <v>31</v>
       </c>
-      <c r="J137" t="n">
+      <c r="J137">
         <v>44</v>
       </c>
       <c r="K137" t="s">
         <v>16</v>
       </c>
-      <c r="L137"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="1">
         <v>44372</v>
       </c>
       <c r="B138" t="s">
         <v>52</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
@@ -5537,34 +5445,33 @@
       <c r="E138" t="s">
         <v>25</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F138">
         <v>4</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G138">
         <v>179</v>
       </c>
-      <c r="H138" t="n">
+      <c r="H138">
         <v>40</v>
       </c>
       <c r="I138" t="s">
         <v>31</v>
       </c>
-      <c r="J138" t="n">
+      <c r="J138">
         <v>45</v>
       </c>
       <c r="K138" t="s">
         <v>16</v>
       </c>
-      <c r="L138"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="1">
         <v>44372</v>
       </c>
       <c r="B139" t="s">
         <v>52</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
@@ -5573,34 +5480,33 @@
       <c r="E139" t="s">
         <v>25</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F139">
         <v>5</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G139">
         <v>180</v>
       </c>
-      <c r="H139" t="n">
+      <c r="H139">
         <v>40</v>
       </c>
       <c r="I139" t="s">
         <v>30</v>
       </c>
-      <c r="J139" t="n">
+      <c r="J139">
         <v>46</v>
       </c>
       <c r="K139" t="s">
         <v>16</v>
       </c>
-      <c r="L139"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="1">
         <v>44372</v>
       </c>
       <c r="B140" t="s">
         <v>52</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>1</v>
       </c>
       <c r="D140" t="s">
@@ -5609,34 +5515,33 @@
       <c r="E140" t="s">
         <v>25</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F140">
         <v>6</v>
       </c>
-      <c r="G140" t="n">
+      <c r="G140">
         <v>181</v>
       </c>
-      <c r="H140" t="n">
+      <c r="H140">
         <v>40</v>
       </c>
       <c r="I140" t="s">
         <v>30</v>
       </c>
-      <c r="J140" t="n">
+      <c r="J140">
         <v>47</v>
       </c>
       <c r="K140" t="s">
         <v>16</v>
       </c>
-      <c r="L140"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="1">
         <v>44372</v>
       </c>
       <c r="B141" t="s">
         <v>52</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>1</v>
       </c>
       <c r="D141" t="s">
@@ -5645,34 +5550,33 @@
       <c r="E141" t="s">
         <v>20</v>
       </c>
-      <c r="F141" t="n">
-        <v>1</v>
-      </c>
-      <c r="G141" t="n">
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
         <v>182</v>
       </c>
-      <c r="H141" t="n">
+      <c r="H141">
         <v>40</v>
       </c>
       <c r="I141" t="s">
         <v>30</v>
       </c>
-      <c r="J141" t="n">
+      <c r="J141">
         <v>48</v>
       </c>
       <c r="K141" t="s">
         <v>16</v>
       </c>
-      <c r="L141"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="1">
         <v>44372</v>
       </c>
       <c r="B142" t="s">
         <v>52</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>1</v>
       </c>
       <c r="D142" t="s">
@@ -5681,34 +5585,33 @@
       <c r="E142" t="s">
         <v>20</v>
       </c>
-      <c r="F142" t="n">
-        <v>2</v>
-      </c>
-      <c r="G142" t="n">
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142">
         <v>183</v>
       </c>
-      <c r="H142" t="n">
+      <c r="H142">
         <v>40</v>
       </c>
       <c r="I142" t="s">
         <v>30</v>
       </c>
-      <c r="J142" t="n">
+      <c r="J142">
         <v>49</v>
       </c>
       <c r="K142" t="s">
         <v>16</v>
       </c>
-      <c r="L142"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="1">
         <v>44372</v>
       </c>
       <c r="B143" t="s">
         <v>52</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>1</v>
       </c>
       <c r="D143" t="s">
@@ -5717,34 +5620,33 @@
       <c r="E143" t="s">
         <v>20</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F143">
         <v>3</v>
       </c>
-      <c r="G143" t="n">
+      <c r="G143">
         <v>184</v>
       </c>
-      <c r="H143" t="n">
+      <c r="H143">
         <v>40</v>
       </c>
       <c r="I143" t="s">
         <v>31</v>
       </c>
-      <c r="J143" t="n">
+      <c r="J143">
         <v>46</v>
       </c>
       <c r="K143" t="s">
         <v>16</v>
       </c>
-      <c r="L143"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="1">
         <v>44372</v>
       </c>
       <c r="B144" t="s">
         <v>52</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>1</v>
       </c>
       <c r="D144" t="s">
@@ -5753,34 +5655,33 @@
       <c r="E144" t="s">
         <v>20</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F144">
         <v>4</v>
       </c>
-      <c r="G144" t="n">
+      <c r="G144">
         <v>185</v>
       </c>
-      <c r="H144" t="n">
+      <c r="H144">
         <v>40</v>
       </c>
       <c r="I144" t="s">
         <v>31</v>
       </c>
-      <c r="J144" t="n">
+      <c r="J144">
         <v>47</v>
       </c>
       <c r="K144" t="s">
         <v>16</v>
       </c>
-      <c r="L144"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="1">
         <v>44372</v>
       </c>
       <c r="B145" t="s">
         <v>52</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>1</v>
       </c>
       <c r="D145" t="s">
@@ -5789,34 +5690,33 @@
       <c r="E145" t="s">
         <v>20</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F145">
         <v>5</v>
       </c>
-      <c r="G145" t="n">
+      <c r="G145">
         <v>186</v>
       </c>
-      <c r="H145" t="n">
+      <c r="H145">
         <v>40</v>
       </c>
       <c r="I145" t="s">
         <v>15</v>
       </c>
-      <c r="J145" t="n">
+      <c r="J145">
         <v>83</v>
       </c>
       <c r="K145" t="s">
         <v>16</v>
       </c>
-      <c r="L145"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="1">
         <v>44372</v>
       </c>
       <c r="B146" t="s">
         <v>52</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>1</v>
       </c>
       <c r="D146" t="s">
@@ -5825,34 +5725,33 @@
       <c r="E146" t="s">
         <v>20</v>
       </c>
-      <c r="F146" t="n">
+      <c r="F146">
         <v>6</v>
       </c>
-      <c r="G146" t="n">
+      <c r="G146">
         <v>187</v>
       </c>
-      <c r="H146" t="n">
+      <c r="H146">
         <v>40</v>
       </c>
       <c r="I146" t="s">
         <v>15</v>
       </c>
-      <c r="J146" t="n">
+      <c r="J146">
         <v>84</v>
       </c>
       <c r="K146" t="s">
         <v>16</v>
       </c>
-      <c r="L146"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="1">
         <v>44372</v>
       </c>
       <c r="B147" t="s">
         <v>52</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>1</v>
       </c>
       <c r="D147" t="s">
@@ -5861,34 +5760,33 @@
       <c r="E147" t="s">
         <v>18</v>
       </c>
-      <c r="F147" t="n">
-        <v>1</v>
-      </c>
-      <c r="G147" t="n">
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
         <v>194</v>
       </c>
-      <c r="H147" t="n">
+      <c r="H147">
         <v>40</v>
       </c>
       <c r="I147" t="s">
         <v>31</v>
       </c>
-      <c r="J147" t="n">
+      <c r="J147">
         <v>50</v>
       </c>
       <c r="K147" t="s">
         <v>16</v>
       </c>
-      <c r="L147"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="1">
         <v>44372</v>
       </c>
       <c r="B148" t="s">
         <v>52</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>1</v>
       </c>
       <c r="D148" t="s">
@@ -5897,34 +5795,33 @@
       <c r="E148" t="s">
         <v>18</v>
       </c>
-      <c r="F148" t="n">
-        <v>2</v>
-      </c>
-      <c r="G148" t="n">
+      <c r="F148">
+        <v>2</v>
+      </c>
+      <c r="G148">
         <v>195</v>
       </c>
-      <c r="H148" t="n">
+      <c r="H148">
         <v>40</v>
       </c>
       <c r="I148" t="s">
         <v>31</v>
       </c>
-      <c r="J148" t="n">
+      <c r="J148">
         <v>51</v>
       </c>
       <c r="K148" t="s">
         <v>16</v>
       </c>
-      <c r="L148"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="1">
         <v>44372</v>
       </c>
       <c r="B149" t="s">
         <v>52</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>1</v>
       </c>
       <c r="D149" t="s">
@@ -5933,34 +5830,33 @@
       <c r="E149" t="s">
         <v>18</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F149">
         <v>3</v>
       </c>
-      <c r="G149" t="n">
+      <c r="G149">
         <v>196</v>
       </c>
-      <c r="H149" t="n">
+      <c r="H149">
         <v>40</v>
       </c>
       <c r="I149" t="s">
         <v>15</v>
       </c>
-      <c r="J149" t="n">
+      <c r="J149">
         <v>87</v>
       </c>
       <c r="K149" t="s">
         <v>16</v>
       </c>
-      <c r="L149"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="1">
         <v>44372</v>
       </c>
       <c r="B150" t="s">
         <v>52</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>1</v>
       </c>
       <c r="D150" t="s">
@@ -5969,34 +5865,33 @@
       <c r="E150" t="s">
         <v>18</v>
       </c>
-      <c r="F150" t="n">
+      <c r="F150">
         <v>4</v>
       </c>
-      <c r="G150" t="n">
+      <c r="G150">
         <v>197</v>
       </c>
-      <c r="H150" t="n">
+      <c r="H150">
         <v>40</v>
       </c>
       <c r="I150" t="s">
         <v>15</v>
       </c>
-      <c r="J150" t="n">
+      <c r="J150">
         <v>88</v>
       </c>
       <c r="K150" t="s">
         <v>16</v>
       </c>
-      <c r="L150"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="1">
         <v>44372</v>
       </c>
       <c r="B151" t="s">
         <v>52</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>1</v>
       </c>
       <c r="D151" t="s">
@@ -6005,34 +5900,33 @@
       <c r="E151" t="s">
         <v>18</v>
       </c>
-      <c r="F151" t="n">
+      <c r="F151">
         <v>5</v>
       </c>
-      <c r="G151" t="n">
+      <c r="G151">
         <v>198</v>
       </c>
-      <c r="H151" t="n">
+      <c r="H151">
         <v>40</v>
       </c>
       <c r="I151" t="s">
         <v>15</v>
       </c>
-      <c r="J151" t="n">
+      <c r="J151">
         <v>89</v>
       </c>
       <c r="K151" t="s">
         <v>16</v>
       </c>
-      <c r="L151"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="1">
         <v>44372</v>
       </c>
       <c r="B152" t="s">
         <v>52</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>1</v>
       </c>
       <c r="D152" t="s">
@@ -6041,51 +5935,48 @@
       <c r="E152" t="s">
         <v>18</v>
       </c>
-      <c r="F152" t="n">
+      <c r="F152">
         <v>6</v>
       </c>
-      <c r="G152" t="n">
+      <c r="G152">
         <v>199</v>
       </c>
-      <c r="H152" t="n">
+      <c r="H152">
         <v>40</v>
       </c>
       <c r="I152" t="s">
         <v>15</v>
       </c>
-      <c r="J152" t="n">
+      <c r="J152">
         <v>90</v>
       </c>
       <c r="K152" t="s">
         <v>16</v>
       </c>
-      <c r="L152"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="1">
         <v>44372</v>
       </c>
       <c r="B153" t="s">
         <v>55</v>
       </c>
-      <c r="C153"/>
-      <c r="D153"/>
       <c r="E153" t="s">
         <v>56</v>
       </c>
-      <c r="F153" t="n">
-        <v>1</v>
-      </c>
-      <c r="G153" t="n">
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
         <v>204</v>
       </c>
-      <c r="H153" t="n">
+      <c r="H153">
         <v>40</v>
       </c>
       <c r="I153" t="s">
         <v>30</v>
       </c>
-      <c r="J153" t="n">
+      <c r="J153">
         <v>52</v>
       </c>
       <c r="K153" t="s">
@@ -6095,63 +5986,58 @@
         <v>57</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="1">
         <v>44372</v>
       </c>
       <c r="B154" t="s">
         <v>55</v>
       </c>
-      <c r="C154"/>
-      <c r="D154"/>
       <c r="E154" t="s">
         <v>56</v>
       </c>
-      <c r="F154" t="n">
-        <v>2</v>
-      </c>
-      <c r="G154" t="n">
+      <c r="F154">
+        <v>2</v>
+      </c>
+      <c r="G154">
         <v>205</v>
       </c>
-      <c r="H154" t="n">
+      <c r="H154">
         <v>40</v>
       </c>
       <c r="I154" t="s">
         <v>31</v>
       </c>
-      <c r="J154" t="n">
+      <c r="J154">
         <v>53</v>
       </c>
       <c r="K154" t="s">
         <v>16</v>
       </c>
-      <c r="L154"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="1">
         <v>44372</v>
       </c>
       <c r="B155" t="s">
         <v>55</v>
       </c>
-      <c r="C155"/>
-      <c r="D155"/>
       <c r="E155" t="s">
         <v>56</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F155">
         <v>3</v>
       </c>
-      <c r="G155" t="n">
+      <c r="G155">
         <v>206</v>
       </c>
-      <c r="H155" t="n">
+      <c r="H155">
         <v>40</v>
       </c>
       <c r="I155" t="s">
         <v>15</v>
       </c>
-      <c r="J155" t="n">
+      <c r="J155">
         <v>93</v>
       </c>
       <c r="K155" t="s">
@@ -6161,63 +6047,58 @@
         <v>58</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="1">
         <v>44372</v>
       </c>
       <c r="B156" t="s">
         <v>55</v>
       </c>
-      <c r="C156"/>
-      <c r="D156"/>
       <c r="E156" t="s">
         <v>56</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F156">
         <v>4</v>
       </c>
-      <c r="G156" t="n">
+      <c r="G156">
         <v>207</v>
       </c>
-      <c r="H156" t="n">
+      <c r="H156">
         <v>40</v>
       </c>
       <c r="I156" t="s">
         <v>15</v>
       </c>
-      <c r="J156" t="n">
+      <c r="J156">
         <v>94</v>
       </c>
       <c r="K156" t="s">
         <v>16</v>
       </c>
-      <c r="L156"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="1">
         <v>44372</v>
       </c>
       <c r="B157" t="s">
         <v>55</v>
       </c>
-      <c r="C157"/>
-      <c r="D157"/>
       <c r="E157" t="s">
         <v>59</v>
       </c>
-      <c r="F157" t="n">
-        <v>1</v>
-      </c>
-      <c r="G157" t="n">
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
         <v>208</v>
       </c>
-      <c r="H157" t="n">
+      <c r="H157">
         <v>40</v>
       </c>
       <c r="I157" t="s">
         <v>30</v>
       </c>
-      <c r="J157" t="n">
+      <c r="J157">
         <v>53</v>
       </c>
       <c r="K157" t="s">
@@ -6227,93 +6108,84 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="1">
         <v>44372</v>
       </c>
       <c r="B158" t="s">
         <v>55</v>
       </c>
-      <c r="C158"/>
-      <c r="D158"/>
       <c r="E158" t="s">
         <v>59</v>
       </c>
-      <c r="F158" t="n">
-        <v>2</v>
-      </c>
-      <c r="G158" t="n">
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="G158">
         <v>209</v>
       </c>
-      <c r="H158" t="n">
+      <c r="H158">
         <v>40</v>
       </c>
       <c r="I158" t="s">
         <v>31</v>
       </c>
-      <c r="J158"/>
       <c r="K158" t="s">
         <v>16</v>
       </c>
-      <c r="L158"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="1">
         <v>44372</v>
       </c>
       <c r="B159" t="s">
         <v>55</v>
       </c>
-      <c r="C159"/>
-      <c r="D159"/>
       <c r="E159" t="s">
         <v>59</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F159">
         <v>3</v>
       </c>
-      <c r="G159" t="n">
+      <c r="G159">
         <v>210</v>
       </c>
-      <c r="H159" t="n">
+      <c r="H159">
         <v>40</v>
       </c>
       <c r="I159" t="s">
         <v>15</v>
       </c>
-      <c r="J159" t="n">
+      <c r="J159">
         <v>95</v>
       </c>
       <c r="K159" t="s">
         <v>16</v>
       </c>
-      <c r="L159"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="1">
         <v>44372</v>
       </c>
       <c r="B160" t="s">
         <v>55</v>
       </c>
-      <c r="C160"/>
-      <c r="D160"/>
       <c r="E160" t="s">
         <v>59</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F160">
         <v>4</v>
       </c>
-      <c r="G160" t="n">
+      <c r="G160">
         <v>211</v>
       </c>
-      <c r="H160" t="n">
+      <c r="H160">
         <v>40</v>
       </c>
       <c r="I160" t="s">
         <v>15</v>
       </c>
-      <c r="J160" t="n">
+      <c r="J160">
         <v>96</v>
       </c>
       <c r="K160" t="s">
@@ -6323,40 +6195,37 @@
         <v>61</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="1">
         <v>44372</v>
       </c>
       <c r="B161" t="s">
         <v>55</v>
       </c>
-      <c r="C161"/>
-      <c r="D161"/>
       <c r="E161" t="s">
         <v>59</v>
       </c>
-      <c r="F161" t="n">
+      <c r="F161">
         <v>5</v>
       </c>
-      <c r="G161" t="n">
+      <c r="G161">
         <v>212</v>
       </c>
-      <c r="H161" t="n">
+      <c r="H161">
         <v>40</v>
       </c>
       <c r="I161" t="s">
         <v>15</v>
       </c>
-      <c r="J161" t="n">
+      <c r="J161">
         <v>97</v>
       </c>
       <c r="K161" t="s">
         <v>16</v>
       </c>
-      <c r="L161"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>